--- a/フローチャート.xlsx
+++ b/フローチャート.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunji\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunji\Desktop\GitHub\Calculator-Java-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D319DAA-F220-4732-A93A-01A3BA9FB39C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC6EA2A-8BBB-4FD8-A965-5F16CA7DCD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11370" yWindow="930" windowWidth="14685" windowHeight="14220" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
   </bookViews>
   <sheets>
-    <sheet name="設計フローチャート" sheetId="2" r:id="rId1"/>
-    <sheet name="工程管理" sheetId="1" r:id="rId2"/>
+    <sheet name="Mainクラス" sheetId="2" r:id="rId1"/>
+    <sheet name="Tokenクラス" sheetId="3" r:id="rId2"/>
+    <sheet name="Nodeクラス" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,80 +36,329 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
-    <t>電卓プログラム（Java版）</t>
+    <t>メソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tokenクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nodeクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Node left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Node right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Node parent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Token value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private String token</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字の時はdouble型に変換</t>
     <rPh sb="0" eb="2">
-      <t>デンタク</t>
+      <t>スウジ</t>
     </rPh>
-    <rPh sb="12" eb="13">
-      <t>バン</t>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コーディング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GUIの設計</t>
-    <rPh sb="4" eb="6">
-      <t>セッケイ</t>
+    <t>String tokenを出力</t>
+    <rPh sb="13" eb="15">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GUIの作成</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
+    <t>＊カテゴリは数字、演算子、括弧、空白の4種</t>
+    <rPh sb="6" eb="8">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>エンザンシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カッコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フロー作成</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
+    <t>selfノードに対してtokenを値に持つノードを適切な位置に付加する</t>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>フカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5/18～5/20</t>
+    <t>public set(Token token, Node parent, Node left, Node right)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5/21～5/22</t>
+    <t>public コンストラクタ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5/18</t>
+    <t>public get</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5/21</t>
+    <t>public append()</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>予定</t>
+    <t>Yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様</t>
     <rPh sb="0" eb="2">
-      <t>ヨテイ</t>
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実際の進捗</t>
-    <rPh sb="0" eb="2">
-      <t>ジッサイ</t>
+    <t>・括弧前後の*, /は省略不可</t>
+    <rPh sb="1" eb="3">
+      <t>カッコ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>シンチョク</t>
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トークンに分解</t>
-    <rPh sb="5" eb="7">
-      <t>ブンカイ</t>
+    <t xml:space="preserve">private </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>self.value = token</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Node(Token token)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public moveCurrentNode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public addTree(in Token token, out List&lt;Node&gt; nodeList, out List&lt;Node&gt; nodePointers)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static methods</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public detCategory(String prevCategory, char ch)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>charがどのtoken　categoryに属するかを判定する</t>
+    <rPh sb="22" eb="23">
+      <t>ゾク</t>
     </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>nodePointers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の最後の値を移動</t>
+    </r>
+  </si>
+  <si>
+    <t>計算実行</t>
+  </si>
+  <si>
+    <t>1. 左の子ノードへ</t>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 子ノードが無い時右隣のノードへ</t>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミギドナリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. 全ての子ノードを探索したら右隣へ</t>
+    <rPh sb="3" eb="4">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ミギドナリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　 親ノードの演算子を実行</t>
+    <rPh sb="2" eb="3">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>エンザンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. 右隣が無い時親ノードへ。</t>
+    <rPh sb="3" eb="5">
+      <t>ミギドナリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List stackにトークンを積み、4の時点で計算実行</t>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・+-演算子に対するaddTreeの処理</t>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・*/演算子に対するaddTreeの処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・(に対するaddTreeの処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・)に対するaddTreeの処理</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -115,7 +366,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +380,27 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="AR丸ゴシック体M"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,134 +410,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -275,50 +424,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,13 +524,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -527,13 +646,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -641,13 +760,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -660,14 +779,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
+          <a:stCxn id="22" idx="2"/>
           <a:endCxn id="30" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="1819275"/>
-          <a:ext cx="0" cy="342900"/>
+        <a:xfrm flipH="1">
+          <a:off x="1371600" y="2733675"/>
+          <a:ext cx="9525" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -694,13 +813,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -747,13 +866,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -801,13 +920,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -855,13 +974,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -908,13 +1027,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -996,13 +1115,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1084,13 +1203,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1106,7 +1225,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514350" y="3971925"/>
+          <a:off x="514350" y="5057775"/>
           <a:ext cx="1714500" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
@@ -1146,6 +1265,2925 @@
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 端子 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10353FF-5F43-4577-8435-D62D4A2CE7DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="361950"/>
+          <a:ext cx="1657350" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>トークンに分解</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>           開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 上の 2 つの角を切り取る 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{007FD41E-5AC8-4AC4-97C8-523B5AF2B239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4124325" y="3467100"/>
+          <a:ext cx="1352550" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36111"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E4725E-75F5-46B4-B604-33D61892CDCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="1609725"/>
+          <a:ext cx="1390650" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>tokenList = []</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB1D06F-50CA-4A0E-8A04-57AC4D44D9A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="2543175"/>
+          <a:ext cx="1390650" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>空の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> token </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>を生成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3231FDD-EEFD-4A6C-A564-1CDC7EF78C68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2171700"/>
+          <a:ext cx="1390650" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>formulaStr = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>数式</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27105C32-BC86-4BA7-BEC0-49885843DB8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1819275"/>
+          <a:ext cx="9525" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFFC941E-EE98-469E-BB5A-D8DA747E29D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3609975" y="5438775"/>
+          <a:ext cx="2381250" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の続きの文字か</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新しい</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の先頭の文字か判定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(detCategory</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DCA02B9-C040-4257-A5FE-A3FE740E53C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="4514850"/>
+          <a:ext cx="1390650" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>formulaStr[i]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フローチャート: 判断 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3A74DE-A1ED-4A64-8760-72956509EC82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="6543675"/>
+          <a:ext cx="2533650" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の続き</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08F565B-714E-4DD9-AFD5-8CAB935833C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="8143876"/>
+          <a:ext cx="2114550" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に付け加える</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B250331-0F54-4F80-AAFD-632D34E838B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="9772650"/>
+          <a:ext cx="2105026" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>tokenList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に追加する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC292F18-4056-4096-8372-8E44DE4B7B5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="10677526"/>
+          <a:ext cx="2085975" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をクリア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE330E5-E4A7-4F33-ACC2-F19EAAAD9DF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858001" y="11401425"/>
+          <a:ext cx="2057400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="四角形: 上の 2 つの角を切り取る 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BF5218-1EEB-4236-8628-0617A916E268}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="11229975"/>
+          <a:ext cx="1352550" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 37500"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="フローチャート: 端子 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C46F7B8B-1340-4567-9C82-CCD1A7ED442E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="12334875"/>
+          <a:ext cx="1381125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="フローチャート: 端子 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80E5D02-F3B4-4101-B2E7-BF0968880B9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163175" y="352426"/>
+          <a:ext cx="1657350" cy="809624"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>構文木に変換</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>         開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D3A2B5-E5FC-47E4-B738-F62957E01CDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="3419475"/>
+          <a:ext cx="1390650" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token = tokenList[i]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="四角形: 上の 2 つの角を切り取る 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A66158DA-7CF8-4819-9E99-83F1B1881B0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10296525" y="2381250"/>
+          <a:ext cx="1352550" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36111"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC5FEAB-C4F0-437A-BFDB-11C2C107FD77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="1447800"/>
+          <a:ext cx="1390650" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>nodeList = []</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="四角形: 上の 2 つの角を切り取る 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A1EE32-8B33-41A2-A64D-7D43DAF791CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="11229975"/>
+          <a:ext cx="1352550" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 37500"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="フローチャート: 端子 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25654535-1F4D-46FC-830F-2B3397517CC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="12334875"/>
+          <a:ext cx="1381125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F26D5A6-CDF3-40ED-BBFC-38BA12304F05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="3257550"/>
+          <a:ext cx="1390650" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>nodePointers = []</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="フローチャート: 定義済み処理 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6ADFE9-2DF1-4A22-AC9B-7D5A915D43CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11229975" y="6315075"/>
+          <a:ext cx="2190750" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>構文木にノードを追加</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(addTree</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="フローチャート: 定義済み処理 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010CD36B-F070-41BF-9851-A703CD8CA75E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10944225" y="6715125"/>
+          <a:ext cx="3019425" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nodePointers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の最後の値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>移動</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(moveCurrentNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)Node</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="フローチャート: 判断 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD77DFFA-D079-49D2-AB2B-3757CEF6D937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="7439025"/>
+          <a:ext cx="2533650" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は空白</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E2A91B-AF10-4F0A-8CEF-BC3693CCBCD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5067300" y="7958138"/>
+          <a:ext cx="4067175" cy="3824287"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28338"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 判断 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4958B7C-B10D-4EC3-92E3-B7E15016BEEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="5267325"/>
+          <a:ext cx="2533650" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は数字または</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 端子 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676E8106-0815-498C-A952-F44E7B466122}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124074" y="4162425"/>
+          <a:ext cx="2085975" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>detCategory</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 判断 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A8770B-F00A-48DC-98E3-46A0EAB547AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="6343651"/>
+          <a:ext cx="2971800" cy="1066799"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は以下のいずれか</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>+-*/</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AAA794-11B8-4A7F-9818-8829B4F5D438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="7248525"/>
+          <a:ext cx="1666875" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> = "digit"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EDF0020-D1F8-480C-9410-06964B4DC290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="8143875"/>
+          <a:ext cx="1666875" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> = "operator"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート: 判断 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E95DE4-009D-4591-B785-8FD2B81BB6F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="6343651"/>
+          <a:ext cx="2971800" cy="1066799"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は括弧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F74D83-7BC7-4D06-B0E8-322E8A30C270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="9229725"/>
+          <a:ext cx="1666875" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> = "bracket"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート: 端子 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E33EDE1-2873-4E4C-A18E-E89D86C62A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="10487025"/>
+          <a:ext cx="1381125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 端子 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CC43C7-5908-4586-8519-D1E0173EBA42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="3800475"/>
+          <a:ext cx="1676400" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>tree</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>           開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD10B3A1-EAB3-4347-8635-F712933A524F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286499" y="8505826"/>
+          <a:ext cx="1666875" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 判断 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2463979-B8CE-4A28-B680-EC8DB8A57682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="5972175"/>
+          <a:ext cx="2533650" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は数値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728FBCF5-4AAC-4952-8B58-2D464F7B664E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="7419975"/>
+          <a:ext cx="1666875" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>self.value</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート: 判断 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE2CD3D-C348-43F2-AF47-39505205C47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="7086600"/>
+          <a:ext cx="2533650" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>+-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>演算子</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 判断 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61378D77-8D36-4520-974C-7D34852A85B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="7086600"/>
+          <a:ext cx="2533650" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>*/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>演算子</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 判断 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2852F5-80BF-45B0-9B83-44BEF51835F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11753850" y="8143875"/>
+          <a:ext cx="2533650" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1451,17 +4489,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E67D849-DB9C-4BA8-84E8-0CC0C587D03D}">
-  <dimension ref="F2"/>
+  <dimension ref="B40:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" t="s">
+    <row r="40" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="O44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E624317F-9ED6-4353-B8E3-7B6EEE4E39DF}">
+  <dimension ref="A2:AH49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W61" sqref="W61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="X38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="S43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="AH44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="29:29" x14ac:dyDescent="0.2">
+      <c r="AC49" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1471,78 +4677,186 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8565222-B60C-4BE6-8E4D-01B4198F7D37}">
-  <dimension ref="A1:D7"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D20E27-361E-4C48-BA6A-EEB078B7DAB9}">
+  <dimension ref="B4:AI87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U54" sqref="U54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="11:35" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="11:35" x14ac:dyDescent="0.2">
+      <c r="U37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="11:35" x14ac:dyDescent="0.2">
+      <c r="R41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="11:35" x14ac:dyDescent="0.2">
+      <c r="AB42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="11:35" x14ac:dyDescent="0.2">
+      <c r="Y46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="11:35" x14ac:dyDescent="0.2">
+      <c r="AI48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="32:32" x14ac:dyDescent="0.2">
+      <c r="AF52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="D74" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="E75" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E84" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E85" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EDE80A-B016-4D5E-A929-9B27C97473EF}">
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="9"/>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/フローチャート.xlsx
+++ b/フローチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunji\Desktop\GitHub\Calculator-Java-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC6EA2A-8BBB-4FD8-A965-5F16CA7DCD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8433B7B-3545-4662-A5D8-6AACACC43317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Mainクラス" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>メソッド</t>
     <phoneticPr fontId="1"/>
@@ -102,13 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>String tokenを出力</t>
-    <rPh sb="13" eb="15">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>＊カテゴリは数字、演算子、括弧、空白の4種</t>
     <rPh sb="6" eb="8">
       <t>スウジ</t>
@@ -128,41 +121,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>selfノードに対してtokenを値に持つノードを適切な位置に付加する</t>
-    <rPh sb="8" eb="9">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テキセツ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>public set(Token token, Node parent, Node left, Node right)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>public コンストラクタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>public get</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>public append()</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -197,10 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">private </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>self.value = token</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -209,19 +168,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>public moveCurrentNode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>public addTree(in Token token, out List&lt;Node&gt; nodeList, out List&lt;Node&gt; nodePointers)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>static methods</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>public detCategory(String prevCategory, char ch)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -235,130 +186,72 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>nodePointers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の最後の値を移動</t>
-    </r>
+    <t>public Token</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>計算実行</t>
-  </si>
-  <si>
-    <t>1. 左の子ノードへ</t>
-    <rPh sb="3" eb="4">
-      <t>ヒダリ</t>
+    <t>tokenの値(String)とカテゴリ名(String)からインスタンス生成</t>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2. 子ノードが無い時右隣のノードへ</t>
-    <rPh sb="3" eb="4">
-      <t>コ</t>
+    <t>メンバ変数tokenをreturnする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public append(char ch)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバ変数tokenにchを後ろから結合</t>
+    <rPh sb="14" eb="15">
+      <t>ウシ</t>
     </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ミギドナリ</t>
+    <rPh sb="18" eb="20">
+      <t>ケツゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3. 全ての子ノードを探索したら右隣へ</t>
-    <rPh sb="3" eb="4">
-      <t>スベ</t>
+    <t>public detCategory(char ch)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thisノードに対してtokenを値に持つノードを適切な位置に付加する</t>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>タンサク</t>
+    <rPh sb="19" eb="20">
+      <t>モ</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>ミギドナリ</t>
+    <rPh sb="25" eb="27">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>フカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　 親ノードの演算子を実行</t>
-    <rPh sb="2" eb="3">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>エンザンシ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジッコウ</t>
-    </rPh>
+    <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4. 右隣が無い時親ノードへ。</t>
-    <rPh sb="3" eb="5">
-      <t>ミギドナリ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>List stackにトークンを積み、4の時点で計算実行</t>
-    <rPh sb="16" eb="17">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジテン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・+-演算子に対するaddTreeの処理</t>
-    <rPh sb="7" eb="8">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・*/演算子に対するaddTreeの処理</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・(に対するaddTreeの処理</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・)に対するaddTreeの処理</t>
+    <t>Yes</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -366,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,12 +272,6 @@
       <name val="AR丸ゴシック体M"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -424,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,12 +319,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2259,15 +2140,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2282,7 +2163,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4105275" y="12334875"/>
+          <a:off x="4095750" y="13982700"/>
           <a:ext cx="1381125" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -2466,14 +2347,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -2490,8 +2371,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10296525" y="2381250"/>
-          <a:ext cx="1352550" cy="685800"/>
+          <a:off x="13563600" y="3438526"/>
+          <a:ext cx="1743075" cy="895349"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst>
@@ -2519,6 +2400,29 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>i = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>i  &lt; tokenList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の長さ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>i++</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2590,14 +2494,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2613,7 +2517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4114800" y="11229975"/>
+          <a:off x="13725525" y="6705600"/>
           <a:ext cx="1352550" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -2650,16 +2554,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2674,7 +2578,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4105275" y="12334875"/>
+          <a:off x="13735050" y="9972675"/>
           <a:ext cx="1381125" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -2720,7 +2624,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2735,8 +2639,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11658600" y="3257550"/>
-          <a:ext cx="1390650" cy="561975"/>
+          <a:off x="13716000" y="2533650"/>
+          <a:ext cx="1390650" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2885,34 +2789,2063 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="フローチャート: 判断 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD77DFFA-D079-49D2-AB2B-3757CEF6D937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="7439025"/>
+          <a:ext cx="2533650" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は空白</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E2A91B-AF10-4F0A-8CEF-BC3693CCBCD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5067300" y="7958138"/>
+          <a:ext cx="4067175" cy="3824287"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28338"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348125C8-C2BB-4569-A323-DFB4AFFB60E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="13125450"/>
+          <a:ext cx="2114550" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>return</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> tokenList</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EAFFA0B-4AF8-43DE-814F-662CEB53EC8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13716000" y="9058275"/>
+          <a:ext cx="1390650" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>return nodeList</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="フローチャート: 端子 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8AEB7B-501C-4255-8755-481510230DFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="16478250"/>
+          <a:ext cx="1657350" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>計算実行</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>   開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="フローチャート: 端子 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85EDFCF-6814-4961-ADC5-82E3EE1A064F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="23707725"/>
+          <a:ext cx="1381125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="四角形: 上の 2 つの角を切り取る 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0E4AD0-0F34-4C85-A473-FE68AE3B684C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="19564350"/>
+          <a:ext cx="1743075" cy="838199"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36111"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>currentNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> != null</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>&amp;&amp; continue</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D09E0C-7177-4331-8EA7-F8D58B2EEA7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="17659350"/>
+          <a:ext cx="2057400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>currentNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> = nodeList[0]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41866655-85E4-4B9F-ADFE-1AE3F51C0927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="18630900"/>
+          <a:ext cx="2057400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>親ノードを辿って一番上を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>currentNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に代入</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="四角形: 上の 2 つの角を切り取る 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384281C5-F0BD-4548-99A4-0E78BA92811F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="21726525"/>
+          <a:ext cx="1743075" cy="838199"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 43182"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1767A6C9-2D7C-4067-A138-514D5ADD7DCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="22802850"/>
+          <a:ext cx="1390650" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>return result</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="フローチャート: 定義済み処理 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BB99F5-E936-41A2-AE42-E5C62F5142D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="20802600"/>
+          <a:ext cx="2105025" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>currentNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = runTree</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="フローチャート: 端子 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17BD782-4039-4A61-A3B7-480A659E6061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6038850" y="16478250"/>
+          <a:ext cx="1657350" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>runTree</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>  開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="フローチャート: 判断 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6B6780-197A-47DC-845E-B8E7DBDDFE51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="17745075"/>
+          <a:ext cx="2533650" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>currentNode.left</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が存在する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="フローチャート: 判断 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E924CEB-1000-4074-AE5F-20A11E4A47C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8715374" y="18830924"/>
+          <a:ext cx="3124201" cy="1695451"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>親ノードから見て右隣のノードが存在する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB3A28A8-0336-463E-8CA8-280F8F8E66AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="21545550"/>
+          <a:ext cx="2057400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nextNode = currentNode.left</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22AB801-6D80-4E0D-9CD5-5DE9565991F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9248775" y="21545550"/>
+          <a:ext cx="2057400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nextNode = currentNode.parent.right</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58B31C2-75EA-4304-B0D1-D2A7A2810732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12677775" y="22078950"/>
+          <a:ext cx="2057400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>currentNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>currentNode.parent</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="四角形: 上の 2 つの角を切り取る 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E096ED-1260-46D4-9081-2DCDDFC36246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12839700" y="20802600"/>
+          <a:ext cx="1743075" cy="838199"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36111"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>currentNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>が親ノードから見て右下</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="四角形: 上の 2 つの角を切り取る 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD256E51-E25F-43BD-B28E-A9B0665BD6C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12877800" y="25746075"/>
+          <a:ext cx="1743075" cy="838199"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 43182"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="フローチャート: 定義済み処理 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F478AB8-4419-43EC-ABC0-C99ABA63CA1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12658725" y="24260174"/>
+          <a:ext cx="2105025" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>result, currentNode,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> .left</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のトークンの組に対して演算実行</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="フローチャート: 判断 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A721C04D-721C-4DBF-948D-FD812879CE56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12458700" y="20450175"/>
+          <a:ext cx="2533650" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>親ノードが存在する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30A1500-F533-4B9F-A33B-7B93F09AD1D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15430500" y="22098000"/>
+          <a:ext cx="2057400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>continue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> = false</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="正方形/長方形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB776837-C4F5-460D-BF79-309C39243192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="19535775"/>
+          <a:ext cx="2057400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>result</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>currentNode.token.get()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 判断 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4958B7C-B10D-4EC3-92E3-B7E15016BEEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="5267325"/>
+          <a:ext cx="2533650" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は数字または</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 端子 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676E8106-0815-498C-A952-F44E7B466122}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124074" y="4162425"/>
+          <a:ext cx="2085975" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>detCategory</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 判断 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A8770B-F00A-48DC-98E3-46A0EAB547AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="6343651"/>
+          <a:ext cx="2971800" cy="1066799"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は以下のいずれか</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>+-*/</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AAA794-11B8-4A7F-9818-8829B4F5D438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="7248525"/>
+          <a:ext cx="1666875" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> = "digit"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EDF0020-D1F8-480C-9410-06964B4DC290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="8143875"/>
+          <a:ext cx="1666875" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> = "operator"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="フローチャート: 定義済み処理 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010CD36B-F070-41BF-9851-A703CD8CA75E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10944225" y="6715125"/>
-          <a:ext cx="3019425" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート: 判断 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E95DE4-009D-4591-B785-8FD2B81BB6F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="6343651"/>
+          <a:ext cx="2971800" cy="1066799"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -2934,6 +4867,559 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は括弧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F74D83-7BC7-4D06-B0E8-322E8A30C270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="9229725"/>
+          <a:ext cx="1666875" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> = "bracket"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート: 端子 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E33EDE1-2873-4E4C-A18E-E89D86C62A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="10487025"/>
+          <a:ext cx="1381125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 端子 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CC43C7-5908-4586-8519-D1E0173EBA42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="3800475"/>
+          <a:ext cx="1676400" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>addTree</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>           開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 判断 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2463979-B8CE-4A28-B680-EC8DB8A57682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="5972175"/>
+          <a:ext cx="2533650" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は数値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート: 判断 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE2CD3D-C348-43F2-AF47-39505205C47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829299" y="5791200"/>
+          <a:ext cx="2886075" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>+-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>演算子かつ親ノードがない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 判断 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61378D77-8D36-4520-974C-7D34852A85B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14801850" y="10706100"/>
+          <a:ext cx="2533650" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>*/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>演算子</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 判断 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2852F5-80BF-45B0-9B83-44BEF51835F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11753850" y="8143875"/>
+          <a:ext cx="2533650" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B87AE7E-CEE9-4F54-AECA-9C276D66FD8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="7067549"/>
+          <a:ext cx="2114550" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
@@ -2956,8 +5442,473 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>の最後の値</a:t>
-          </a:r>
+            <a:t>の右端のノードの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>値に数値を入れる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E233C993-D32C-479E-9B26-853C53C708C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686550" y="7962900"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一番上のノードまで辿って</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>currentNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に代入</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB21E54-D666-4C2D-8251-62C7C290BE8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="10477500"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>curentNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を代入</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="フローチャート: 判断 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F06215-76E1-431B-9A63-80F9CBF858D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="9067800"/>
+          <a:ext cx="2533650" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>currentNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>null</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76F6C9B-7CEA-4810-8195-516BEC307E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="11782425"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を値に持つノードを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>newNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>として生成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7DA610-1451-46CE-BF42-2C07E0BC13BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7924800" y="9586913"/>
+          <a:ext cx="1038225" cy="1995487"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -78899"/>
+            <a:gd name="adj2" fmla="val 99761"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E853524-5EBB-4630-81D5-FA705E831BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6696075" y="13944600"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -2968,10 +5919,135 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:t>ノードの親子関係設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88FC00D-B577-484B-8BA8-C0556BD181C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6696075" y="12858750"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>rightNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を空ノードとして生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0A5CAF-138B-4E10-8D93-B565D0062B90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6677025" y="15020925"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2980,13 +6056,343 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>移動</a:t>
+            <a:t>nodePointers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>右端の値を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nextNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に書き換え</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46713D10-0807-4C7D-8A37-21DD5C151A7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="8867775"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nodePointers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の右端のノード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>currentNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に代入</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3AA162-6075-44AB-98B2-104DB8D4D355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848975" y="9963150"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>leftNode, rightNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>を空ノードとして生成</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325259ED-1750-4E55-AAA0-D1F943D7BA42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10753725" y="12134850"/>
+          <a:ext cx="2266950" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ノードの値を入れ替え</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>leftNode.token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>currentNode.token</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -2997,10 +6403,68 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(moveCurrentNode</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:t>currentNode.token = token</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83AD5CA9-0574-4C51-9C8E-33C5F5EFD3D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10868025" y="13411200"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3009,7 +6473,456 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>メソッド</a:t>
+            <a:t>nodePointers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の右端のノードを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rightNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に書き換え</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70FA093-E0F3-4B73-84D9-C19DFBD34A91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10839450" y="11029950"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ノードの親子関係設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60CF867-4F5A-4F6A-9EED-0029DD192F45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="8867775"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>newNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を空ノードとして生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B53A75AC-69FA-49F7-A54E-C3DBC66446D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848975" y="9963150"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nodePointers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>newNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>add</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>する</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="フローチャート: 判断 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83EEA504-8F6A-42D3-AFFA-637A9BDC5468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14001750" y="8324850"/>
+          <a:ext cx="2533650" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3142D336-E1C7-47A0-8E0F-2EDBF60C2486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14173200" y="9953625"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>一番上のノードまで辿って</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -3021,7 +6934,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>)Node</a:t>
+            <a:t>currentNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に代入</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -3033,34 +6958,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="フローチャート: 判断 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD77DFFA-D079-49D2-AB2B-3757CEF6D937}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6600825" y="7439025"/>
-          <a:ext cx="2533650" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03571374-6941-4748-AAB1-8DC9A1DDADE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14201775" y="11049000"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -3082,112 +7007,85 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は空白</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nodePointers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の右端をリストから削除</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E2A91B-AF10-4F0A-8CEF-BC3693CCBCD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5067300" y="7958138"/>
-          <a:ext cx="4067175" cy="3824287"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -28338"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フローチャート: 判断 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4958B7C-B10D-4EC3-92E3-B7E15016BEEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1924050" y="5267325"/>
-          <a:ext cx="2533650" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2BEC701-01CE-45BD-956C-AD8653C75C8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17135475" y="13030200"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -3209,462 +7107,106 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ch </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は数字または</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nodePointers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の右端を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>currentNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に書き換える</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="フローチャート: 端子 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676E8106-0815-498C-A952-F44E7B466122}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2124074" y="4162425"/>
-          <a:ext cx="2085975" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>detCategory</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>      </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>開始</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="フローチャート: 判断 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A8770B-F00A-48DC-98E3-46A0EAB547AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4848225" y="6343651"/>
-          <a:ext cx="2971800" cy="1066799"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ch </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は以下のいずれか</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>+-*/</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AAA794-11B8-4A7F-9818-8829B4F5D438}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2381250" y="7248525"/>
-          <a:ext cx="1666875" cy="733424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>category</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> = "digit"</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EDF0020-D1F8-480C-9410-06964B4DC290}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5514975" y="8143875"/>
-          <a:ext cx="1666875" cy="733424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>category</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> = "operator"</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="フローチャート: 判断 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E95DE4-009D-4591-B785-8FD2B81BB6F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4848225" y="6343651"/>
-          <a:ext cx="2971800" cy="1066799"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ch </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は括弧</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F74D83-7BC7-4D06-B0E8-322E8A30C270}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9020175" y="9229725"/>
-          <a:ext cx="1666875" cy="733424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>category</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> = "bracket"</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="フローチャート: 端子 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E33EDE1-2873-4E4C-A18E-E89D86C62A66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2486025" y="10487025"/>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="フローチャート: 端子 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD442658-595D-4C25-97AB-B6939761F207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="16478250"/>
           <a:ext cx="1381125" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -3694,496 +7236,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>終了</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート: 端子 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CC43C7-5908-4586-8519-D1E0173EBA42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3352800" y="3800475"/>
-          <a:ext cx="1676400" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>tree</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メソッド</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>           開始</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD10B3A1-EAB3-4347-8635-F712933A524F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286499" y="8505826"/>
-          <a:ext cx="1666875" cy="733424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="フローチャート: 判断 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2463979-B8CE-4A28-B680-EC8DB8A57682}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1257300" y="5972175"/>
-          <a:ext cx="2533650" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>token</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は数値</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728FBCF5-4AAC-4952-8B58-2D464F7B664E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3352800" y="7419975"/>
-          <a:ext cx="1666875" cy="733424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>token</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>self.value</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に設定</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="フローチャート: 判断 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE2CD3D-C348-43F2-AF47-39505205C47B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5848350" y="7086600"/>
-          <a:ext cx="2533650" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>token</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>+-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>演算子</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="フローチャート: 判断 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61378D77-8D36-4520-974C-7D34852A85B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5848350" y="7086600"/>
-          <a:ext cx="2533650" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>token</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>*/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>演算子</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="フローチャート: 判断 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2852F5-80BF-45B0-9B83-44BEF51835F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11753850" y="8143875"/>
-          <a:ext cx="2533650" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>token</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>()</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4489,10 +7541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E67D849-DB9C-4BA8-84E8-0CC0C587D03D}">
-  <dimension ref="B40:O92"/>
+  <dimension ref="B40:O100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
+      <selection activeCell="J131" sqref="J131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4517,40 +7569,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C85" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C86" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C87" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C88" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C89" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C92" t="s">
-        <v>39</v>
-      </c>
+    <row r="100" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4565,7 +7585,7 @@
   <dimension ref="A2:AH49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W61" sqref="W61"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4576,7 +7596,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4592,27 +7612,32 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4622,12 +7647,17 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>29</v>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
@@ -4637,52 +7667,53 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="10:34" x14ac:dyDescent="0.2">
       <c r="J36" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="10:34" x14ac:dyDescent="0.2">
       <c r="X38" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="10:34" x14ac:dyDescent="0.2">
       <c r="S43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="10:34" x14ac:dyDescent="0.2">
       <c r="AH44" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="29:29" x14ac:dyDescent="0.2">
       <c r="AC49" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D20E27-361E-4C48-BA6A-EEB078B7DAB9}">
-  <dimension ref="B4:AI87"/>
+  <dimension ref="B4:AU58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U54" sqref="U54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N120" sqref="N120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4696,7 +7727,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4721,111 +7752,94 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="2"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O31" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="35" spans="11:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="11:32" x14ac:dyDescent="0.2">
       <c r="K35" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="37" spans="11:35" x14ac:dyDescent="0.2">
-      <c r="U37" t="s">
-        <v>21</v>
+    <row r="37" spans="11:32" x14ac:dyDescent="0.2">
+      <c r="W37" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="41" spans="11:35" x14ac:dyDescent="0.2">
-      <c r="R41" t="s">
-        <v>20</v>
+    <row r="42" spans="11:32" x14ac:dyDescent="0.2">
+      <c r="S42" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="42" spans="11:35" x14ac:dyDescent="0.2">
-      <c r="AB42" t="s">
-        <v>21</v>
+    <row r="43" spans="11:32" x14ac:dyDescent="0.2">
+      <c r="AF43" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="46" spans="11:35" x14ac:dyDescent="0.2">
-      <c r="Y46" t="s">
-        <v>20</v>
+    <row r="47" spans="11:32" x14ac:dyDescent="0.2">
+      <c r="AC47" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="48" spans="11:35" x14ac:dyDescent="0.2">
-      <c r="AI48" t="s">
-        <v>21</v>
+    <row r="49" spans="19:47" x14ac:dyDescent="0.2">
+      <c r="AN49" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="52" spans="32:32" x14ac:dyDescent="0.2">
-      <c r="AF52" t="s">
-        <v>20</v>
+    <row r="53" spans="19:47" x14ac:dyDescent="0.2">
+      <c r="V53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="74" spans="4:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="D74" s="1" t="s">
-        <v>27</v>
+    <row r="54" spans="19:47" x14ac:dyDescent="0.2">
+      <c r="AU54" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="75" spans="4:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="E75" s="1" t="s">
-        <v>32</v>
+    <row r="57" spans="19:47" x14ac:dyDescent="0.2">
+      <c r="S57" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D83" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E84" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E85" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E86" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E87" t="s">
-        <v>43</v>
+    <row r="58" spans="19:47" x14ac:dyDescent="0.2">
+      <c r="AR58" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4847,12 +7861,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/フローチャート.xlsx
+++ b/フローチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunji\Desktop\GitHub\Calculator-Java-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8433B7B-3545-4662-A5D8-6AACACC43317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324342E5-1EC3-41E6-AF37-B13B01A5C32D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>メソッド</t>
     <phoneticPr fontId="1"/>
@@ -254,6 +254,22 @@
     <t>Yes</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1153,13 +1169,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -1222,13 +1238,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -1283,13 +1299,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1345,13 +1361,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -1533,13 +1549,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1639,13 +1655,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1713,13 +1729,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -1786,13 +1802,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
@@ -1859,13 +1875,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
@@ -1932,13 +1948,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -1997,13 +2013,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -2078,13 +2094,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -2139,13 +2155,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -2789,13 +2805,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -2854,13 +2870,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -2911,13 +2927,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -4174,13 +4190,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>139</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
@@ -4197,8 +4213,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12658725" y="24260174"/>
-          <a:ext cx="2105025" cy="1000125"/>
+          <a:off x="12363451" y="24260174"/>
+          <a:ext cx="2714624" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -4258,6 +4274,29 @@
             </a:rPr>
             <a:t>のトークンの組に対して演算実行</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(resolveOperator)</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
@@ -4458,6 +4497,982 @@
             <a:t>currentNode.token.get()</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="フローチャート: 端子 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5608B689-0832-4250-B8BE-825C66824674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781176" y="27412951"/>
+          <a:ext cx="1924050" cy="809624"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>resolveOperator</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="フローチャート: 判断 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67214764-EF76-4F8D-88E1-C31D70694CF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="29546551"/>
+          <a:ext cx="2533650" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>operator</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E4DB159-6A96-4720-9DD1-15965D45DBE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="28555950"/>
+          <a:ext cx="2057400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>double result = 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92AE2AC-7493-4777-A44C-F869AAB8ABE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="2"/>
+          <a:endCxn id="77" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="30689551"/>
+          <a:ext cx="0" cy="628649"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="コネクタ: カギ線 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D53B91-2715-41A1-9784-B198F8CB4EA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="75" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="30937200"/>
+          <a:ext cx="2743200" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277A38E7-908F-453C-A8C4-13AD001CB081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467225" y="31308675"/>
+          <a:ext cx="2057400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return num1 - num2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD4C2FE3-280B-4E3A-BB28-FA41CD32FA4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="31318200"/>
+          <a:ext cx="2057400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>return num1 + num2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="コネクタ: カギ線 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F404798-1D46-44A8-B3F1-E0B2056C9A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="80" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495925" y="30946725"/>
+          <a:ext cx="2743200" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8804E78-0647-46EC-A915-73A336664CFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="31318200"/>
+          <a:ext cx="2057400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return num1 * num2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="コネクタ: カギ線 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583FDC0B-929D-4377-9172-0DB066C75BA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="88" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="30946725"/>
+          <a:ext cx="2743200" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77455C2-8D21-479F-88BE-4770E15D4DAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953625" y="31318200"/>
+          <a:ext cx="2057400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return num1 / num2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AD7702-1D11-4205-9CAB-EEF111D7D1F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552575" y="29498924"/>
+          <a:ext cx="2400300" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>operator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>演算子の文字列</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>num1, num2 = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>数値トークンの値</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="フローチャート: 端子 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20F8FFA-3CF4-45C2-897C-920058AA610A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="34204275"/>
+          <a:ext cx="1381125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7541,36 +8556,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E67D849-DB9C-4BA8-84E8-0CC0C587D03D}">
-  <dimension ref="B40:O100"/>
+  <dimension ref="B40:Q181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="J131" sqref="J131"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="N177" sqref="N177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="40" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="J40" t="s">
+    <row r="40" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="K40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="O44" t="s">
+    <row r="44" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H45" t="s">
+    <row r="45" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M49" t="s">
+    <row r="49" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
+    </row>
+    <row r="181" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E181" t="s">
+        <v>34</v>
+      </c>
+      <c r="I181" t="s">
+        <v>35</v>
+      </c>
+      <c r="M181" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7712,7 +8741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D20E27-361E-4C48-BA6A-EEB078B7DAB9}">
   <dimension ref="B4:AU58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="N120" sqref="N120"/>
     </sheetView>
   </sheetViews>

--- a/フローチャート.xlsx
+++ b/フローチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunji\Desktop\GitHub\Calculator-Java-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324342E5-1EC3-41E6-AF37-B13B01A5C32D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3309B4B-B11E-4FC2-ABDF-7722E9EC2EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
+    <workbookView xWindow="150" yWindow="150" windowWidth="18930" windowHeight="14895" activeTab="2" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Mainクラス" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>メソッド</t>
     <phoneticPr fontId="1"/>
@@ -83,41 +83,6 @@
   </si>
   <si>
     <t>private String token</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数字の時はdouble型に変換</t>
-    <rPh sb="0" eb="2">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヘンカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>＊カテゴリは数字、演算子、括弧、空白の4種</t>
-    <rPh sb="6" eb="8">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>エンザンシ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カッコ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>シュ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -270,6 +235,30 @@
     <t>/</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＊カテゴリは数字、+-演算子、*/演算子、(、)、空白の6種</t>
+    <rPh sb="6" eb="8">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>エンザンシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1550,112 +1539,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFFC941E-EE98-469E-BB5A-D8DA747E29D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3609975" y="5438775"/>
-          <a:ext cx="2381250" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>token</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の続きの文字か</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>新しい</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>token</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の先頭の文字か判定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(detCategory</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メソッド</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -1731,13 +1614,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1804,13 +1687,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1875,15 +1758,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1899,7 +1782,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="9772650"/>
+          <a:off x="7505700" y="9048750"/>
           <a:ext cx="2105026" cy="533399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1949,15 +1832,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1972,7 +1855,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6848475" y="10677526"/>
+          <a:off x="7515225" y="9944101"/>
           <a:ext cx="2085975" cy="447674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2013,16 +1896,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2037,7 +1920,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858001" y="11401425"/>
+          <a:off x="7534276" y="10715625"/>
           <a:ext cx="2057400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2096,13 +1979,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2156,15 +2039,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2179,7 +2062,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4095750" y="13982700"/>
+          <a:off x="4791075" y="14077950"/>
           <a:ext cx="1381125" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -2217,15 +2100,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2240,7 +2123,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10163175" y="352426"/>
+          <a:off x="13582650" y="276226"/>
           <a:ext cx="1657350" cy="809624"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -2301,16 +2184,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2325,7 +2208,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10277475" y="3419475"/>
+          <a:off x="13716000" y="4695825"/>
           <a:ext cx="1390650" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2364,15 +2247,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2387,7 +2270,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13563600" y="3438526"/>
+          <a:off x="13544550" y="3457576"/>
           <a:ext cx="1743075" cy="895349"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -2571,15 +2454,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2594,7 +2477,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13735050" y="9972675"/>
+          <a:off x="13716000" y="8677275"/>
           <a:ext cx="1381125" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -2694,15 +2577,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2717,7 +2600,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11229975" y="6315075"/>
+          <a:off x="13306425" y="5619750"/>
           <a:ext cx="2190750" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
@@ -2807,13 +2690,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2871,15 +2754,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>9529</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2891,18 +2774,16 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="3"/>
+          <a:stCxn id="301" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5067300" y="7958138"/>
-          <a:ext cx="4067175" cy="3824287"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -28338"/>
-          </a:avLst>
+        <a:xfrm rot="5400000">
+          <a:off x="7727159" y="8712995"/>
+          <a:ext cx="1371600" cy="5834059"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -2928,15 +2809,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2951,7 +2832,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3714750" y="13125450"/>
+          <a:off x="4419600" y="13154025"/>
           <a:ext cx="2114550" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3056,15 +2937,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3079,7 +2960,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1924050" y="16478250"/>
+          <a:off x="1914525" y="16459200"/>
           <a:ext cx="1657350" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -3125,15 +3006,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3148,7 +3029,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076450" y="23707725"/>
+          <a:off x="2066925" y="24984075"/>
           <a:ext cx="1381125" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -3327,15 +3208,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3350,7 +3231,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1743075" y="18630900"/>
+          <a:off x="1714500" y="18640425"/>
           <a:ext cx="2057400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3456,16 +3337,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>132</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3480,7 +3361,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="22802850"/>
+          <a:off x="2047875" y="24050625"/>
           <a:ext cx="1390650" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3519,15 +3400,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3542,7 +3423,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1704975" y="20802600"/>
+          <a:off x="1695450" y="21897975"/>
           <a:ext cx="2105025" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
@@ -4129,15 +4010,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4152,7 +4033,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12877800" y="25746075"/>
+          <a:off x="12849225" y="25698450"/>
           <a:ext cx="1743075" cy="838199"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -4435,15 +4316,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4458,7 +4339,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="19535775"/>
+          <a:off x="1714500" y="19545300"/>
           <a:ext cx="2057400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4506,13 +4387,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4594,13 +4475,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4656,13 +4537,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4738,13 +4619,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4791,13 +4672,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4843,13 +4724,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4931,13 +4812,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5013,13 +4894,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5065,13 +4946,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5153,13 +5034,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5205,13 +5086,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5293,13 +5174,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5419,15 +5300,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5443,7 +5324,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2085975" y="34204275"/>
+          <a:off x="2038350" y="34566225"/>
           <a:ext cx="1381125" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -5478,6 +5359,3282 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C204B60B-5C1B-47FF-AEEB-893DF80AF273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495925" y="1171575"/>
+          <a:ext cx="0" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FFC762-DF09-4614-816D-F77213444B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495925" y="2171700"/>
+          <a:ext cx="0" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4090EB4-F449-4C34-9A77-08EF2A2452C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5486400" y="3105150"/>
+          <a:ext cx="9525" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線コネクタ 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B84DC0-65FD-4121-9053-C0AB785A9B90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5476875" y="4152900"/>
+          <a:ext cx="9525" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線コネクタ 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D984C68-2D04-404A-9561-0BACB0A4B48E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="265" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="5076825"/>
+          <a:ext cx="9525" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF56EFD4-EBC3-47CB-919E-4E02933466E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="265" idx="2"/>
+          <a:endCxn id="287" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="6067425"/>
+          <a:ext cx="0" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B45B01-316A-4C36-98A9-88E45340131E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5486400" y="7762875"/>
+          <a:ext cx="9525" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線コネクタ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8511F25C-C565-4E11-9FEF-763A4593714F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="42" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5476875" y="8877301"/>
+          <a:ext cx="9525" cy="3257549"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直線コネクタ 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982D5B29-33AE-4E41-9DD7-9EB9C535174A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="1"/>
+          <a:endCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="12820650"/>
+          <a:ext cx="0" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直線コネクタ 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80922583-1437-4422-ABF6-46F3BAD42036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="2"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="13706475"/>
+          <a:ext cx="4763" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="コネクタ: カギ線 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A51F24-2860-4840-B5E8-203DC53F4C7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="58" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="7243763"/>
+          <a:ext cx="1790700" cy="195262"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直線コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1E6B85-1947-4AD8-89E6-709316C33766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8553450" y="8477250"/>
+          <a:ext cx="4763" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直線コネクタ 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238B0BE0-8C55-43C8-A2FC-BD2E6057068E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8558213" y="9582149"/>
+          <a:ext cx="0" cy="361952"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直線コネクタ 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3173FB-7AD0-403B-B633-7C9CC4FE81BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="2"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8558213" y="10391775"/>
+          <a:ext cx="4763" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="直線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFF691D-C453-4FE3-9E77-0A27C107F580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562976" y="11306175"/>
+          <a:ext cx="9524" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="直線コネクタ 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89671E87-37DA-4EC3-9194-2E706D404279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="52" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14406563" y="8334375"/>
+          <a:ext cx="4762" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="直線コネクタ 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EF532E-9C22-40CE-9FCE-C6504500E47E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14411325" y="1085850"/>
+          <a:ext cx="0" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="直線コネクタ 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3449AFAA-8949-4AFB-8DFC-44AC1C0D3DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="2"/>
+          <a:endCxn id="55" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14411325" y="2009775"/>
+          <a:ext cx="0" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="直線コネクタ 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD70719-8579-42EC-BC27-FC3A87A525CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="2"/>
+          <a:endCxn id="46" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14411325" y="3076575"/>
+          <a:ext cx="4763" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="直線コネクタ 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D89B9740-95B3-4BB1-8404-E0ED8164660B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="1"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14411325" y="4352925"/>
+          <a:ext cx="4763" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="直線コネクタ 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D50EE4C-7EE3-4F83-8C26-96F5FE59FDA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="56" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14401800" y="5257800"/>
+          <a:ext cx="9525" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="直線コネクタ 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378289FA-32B1-4952-9276-45DF4B825222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="2"/>
+          <a:endCxn id="51" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="6276975"/>
+          <a:ext cx="0" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="直線コネクタ 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99B2F50-846F-4F2A-AF45-02071F5AC624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="1"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="7391400"/>
+          <a:ext cx="9525" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="直線コネクタ 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46CE1054-50EE-4AB5-9A56-9ED4884A1884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="2"/>
+          <a:endCxn id="61" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2733675" y="17268825"/>
+          <a:ext cx="9525" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="直線コネクタ 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1237D60-6631-437C-A096-68BD528DC328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="2"/>
+          <a:endCxn id="62" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733675" y="18249900"/>
+          <a:ext cx="9525" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="直線コネクタ 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8F9364-5EFD-41F9-80A9-A01F3B72605F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="2"/>
+          <a:endCxn id="87" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="19230975"/>
+          <a:ext cx="0" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="直線コネクタ 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A11FA26D-D0C0-4CAA-90AF-4A26BA439832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="2"/>
+          <a:endCxn id="59" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2738438" y="20135850"/>
+          <a:ext cx="4762" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="直線コネクタ 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9E46DC-42B7-4F29-85C4-3B4E63C1FC23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="1"/>
+          <a:endCxn id="66" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2738438" y="21488399"/>
+          <a:ext cx="9525" cy="409576"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="直線コネクタ 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9431B702-A904-414B-876A-A05DB6325E2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="2"/>
+          <a:endCxn id="63" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2747963" y="22450425"/>
+          <a:ext cx="0" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="直線コネクタ 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99FA73B-09E8-42F0-850E-53694DCD7C01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="1"/>
+          <a:endCxn id="65" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2743200" y="23650574"/>
+          <a:ext cx="4763" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="直線コネクタ 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99875E27-0488-445C-A2B0-48006DF20BB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="54" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="24612600"/>
+          <a:ext cx="14288" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="直線コネクタ 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9550A3E9-9FE7-45B9-854B-5161EF5ECC79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="2"/>
+          <a:endCxn id="74" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2743200" y="28222575"/>
+          <a:ext cx="1" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="直線コネクタ 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C114546E-A6A0-410D-866A-909A32C438F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="2"/>
+          <a:endCxn id="89" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="29146500"/>
+          <a:ext cx="9525" cy="352424"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="直線コネクタ 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CE873E-F097-4A02-88F0-86639F0A9991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="2"/>
+          <a:endCxn id="72" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2743200" y="30689549"/>
+          <a:ext cx="9525" cy="485777"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="197" name="直線コネクタ 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E256A44-8EAA-4CD1-819D-F9E36FC9344B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="2"/>
+          <a:endCxn id="90" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2728913" y="33537525"/>
+          <a:ext cx="14287" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="202" name="コネクタ: カギ線 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1298E6B8-AAA7-4B54-8944-C36EADB3F573}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="88" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6619875" y="29670375"/>
+          <a:ext cx="495300" cy="8229600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="204" name="直線コネクタ 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93F9E31-1C27-4AD0-811B-93C3CB6ED691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5486400" y="33528000"/>
+          <a:ext cx="9525" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="直線コネクタ 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0B351C-2345-4B4B-9C12-B95D5FE8A0D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8229601" y="33537525"/>
+          <a:ext cx="9524" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="213" name="直線コネクタ 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812BA058-B9A5-4918-9311-C500B1678F30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="2"/>
+          <a:endCxn id="68" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6858000" y="17287875"/>
+          <a:ext cx="9525" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="216" name="直線コネクタ 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87BD2EF-01DE-4A82-BD2C-6DF70198BA4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="2"/>
+          <a:endCxn id="70" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="18783300"/>
+          <a:ext cx="9525" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="219" name="直線コネクタ 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE41E230-3666-439F-9552-4E2E9AD828A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="2"/>
+          <a:endCxn id="253" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="22136100"/>
+          <a:ext cx="4763" cy="5200650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="221" name="直線コネクタ 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C84CAD7-5037-4F6D-9A66-2F32EBCE1D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="2"/>
+          <a:endCxn id="73" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="20526375"/>
+          <a:ext cx="0" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="224" name="直線コネクタ 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D9E28E-F933-41FF-B40F-992553EFFDA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="22136100"/>
+          <a:ext cx="19050" cy="4829175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="226" name="直線コネクタ 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BB4263-1372-4434-A2E0-63916E563186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="2"/>
+          <a:endCxn id="82" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13711238" y="21583650"/>
+          <a:ext cx="14287" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="229" name="直線コネクタ 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{061BC379-94BC-45D9-A321-7F608C246553}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="1"/>
+          <a:endCxn id="76" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13706475" y="22907624"/>
+          <a:ext cx="4763" cy="438151"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="直線コネクタ 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9929EDDB-9CF0-4628-A965-D190226980DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13706475" y="23936325"/>
+          <a:ext cx="14288" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="235" name="直線コネクタ 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73FC77D8-5C07-4538-B320-4255F9056FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="83" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13720763" y="25260299"/>
+          <a:ext cx="0" cy="438151"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="239" name="直線コネクタ 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15FA0E4-911B-47E6-92DD-126D192FC697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="83" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13720763" y="26536649"/>
+          <a:ext cx="4762" cy="428626"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="244" name="コネクタ: カギ線 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82AE09C-357D-4BBD-B72F-E5A403D203CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="3"/>
+          <a:endCxn id="69" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124825" y="18264188"/>
+          <a:ext cx="2152650" cy="566736"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="247" name="コネクタ: カギ線 246">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696D56F2-3F6C-4B53-8678-025E6E2E8B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="3"/>
+          <a:endCxn id="85" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11839575" y="19678650"/>
+          <a:ext cx="1885950" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="250" name="コネクタ: カギ線 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F3173F-25E2-4ACD-9354-46654B753AF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="3"/>
+          <a:endCxn id="86" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14992350" y="21016913"/>
+          <a:ext cx="1466850" cy="1081087"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="253" name="フローチャート: 端子 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16632EA3-A103-48E3-8840-256D149F37AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="27336750"/>
+          <a:ext cx="1381125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="259" name="コネクタ: カギ線 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C1C05B-DB59-4D26-B391-20948B5E87EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9520238" y="20026312"/>
+          <a:ext cx="4276725" cy="9601200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="265" name="フローチャート: 定義済み処理 264">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0584A5C-69D4-4B17-B62B-356337C36E62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019549" y="5438774"/>
+          <a:ext cx="2933701" cy="628651"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のカテゴリ判定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(detCategory)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="283" name="直線コネクタ 282">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6F000D-A6E6-4799-AED1-A491F418A9E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="287" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="6896100"/>
+          <a:ext cx="9525" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="287" name="正方形/長方形 286">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA186138-B5E5-4F9F-ACCD-79152F8B3A3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4410075" y="6334125"/>
+          <a:ext cx="2152650" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>category = ch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のカテゴリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="295" name="正方形/長方形 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34489938-BED3-496F-9BB1-5FF63A007B02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="9591675"/>
+          <a:ext cx="2105026" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>tokenList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に追加する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="297" name="コネクタ: カギ線 296">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8CFBEB-68C1-44EC-BC24-88FAFEAF387E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="295" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9820275" y="8501063"/>
+          <a:ext cx="1519238" cy="1090612"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="301" name="正方形/長方形 300">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D2C366-4A8F-4423-B33C-3DCF738E38CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="10496550"/>
+          <a:ext cx="2085975" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をクリア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="302" name="直線コネクタ 301">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF83C88-86A6-4E62-BF25-D64EC4939DC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="295" idx="2"/>
+          <a:endCxn id="301" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11329988" y="10125074"/>
+          <a:ext cx="9525" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5486,15 +8643,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5509,7 +8666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1924050" y="5267325"/>
+          <a:off x="1905000" y="5257800"/>
           <a:ext cx="2533650" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -5629,14 +8786,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5651,8 +8808,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848225" y="6343651"/>
-          <a:ext cx="2971800" cy="1066799"/>
+          <a:off x="4848225" y="6257927"/>
+          <a:ext cx="2295525" cy="876298"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -5683,17 +8840,16 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は以下のいずれか</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+            <a:t>は</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>+-*/</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>+-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>演算子</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5702,15 +8858,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5725,8 +8881,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="7248525"/>
-          <a:ext cx="1666875" cy="733424"/>
+          <a:off x="2343150" y="9772650"/>
+          <a:ext cx="1666875" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5767,16 +8923,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5791,8 +8947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5514975" y="8143875"/>
-          <a:ext cx="1666875" cy="733424"/>
+          <a:off x="5153025" y="9782175"/>
+          <a:ext cx="1666875" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5823,7 +8979,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> = "operator"</a:t>
+            <a:t> = "+-"</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5833,16 +8989,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5857,8 +9013,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848225" y="6343651"/>
-          <a:ext cx="2971800" cy="1066799"/>
+          <a:off x="8372475" y="7429501"/>
+          <a:ext cx="2276475" cy="666749"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -5889,9 +9045,12 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は括弧</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5899,16 +9058,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5923,8 +9082,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9020175" y="9229725"/>
-          <a:ext cx="1666875" cy="733424"/>
+          <a:off x="8677275" y="9229725"/>
+          <a:ext cx="1666875" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5955,7 +9114,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> = "bracket"</a:t>
+            <a:t> = "("</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5966,15 +9125,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5989,7 +9148,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2486025" y="10487025"/>
+          <a:off x="2476500" y="11953875"/>
           <a:ext cx="1381125" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -6024,6 +9183,1552 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7EAFA9-AD74-426C-96F6-6778447ACE90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3167062" y="4876800"/>
+          <a:ext cx="4763" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEFC17F-2D6C-404E-B299-152BF09E5CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="6296025"/>
+          <a:ext cx="4763" cy="4200525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B84CEAD-C08A-4E02-A4EB-C58644FB03D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3167063" y="10848975"/>
+          <a:ext cx="9525" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82253C41-83F8-43A9-8954-C312E18BA424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5986463" y="7134225"/>
+          <a:ext cx="9525" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAE1327-BF7A-425F-A04B-17644B8D2DFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5981700" y="10868025"/>
+          <a:ext cx="4763" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4B3050-9D2B-4C37-BDF0-340E8D93658D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10920413" y="8639175"/>
+          <a:ext cx="0" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="コネクタ: カギ線 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273F9AE4-E833-4E37-807F-58EC4C464FA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="5776913"/>
+          <a:ext cx="1557338" cy="481014"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="コネクタ: カギ線 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41EB6F9-E86A-4193-AA64-4B9B37E3C113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="3"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9591675" y="7591425"/>
+          <a:ext cx="1328738" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C23701C-4ED4-46DF-9F0B-1C592E18C5D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10365582" y="3664744"/>
+          <a:ext cx="571500" cy="14920913"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC62B21-DA50-4D9D-91DB-62B1C47F7711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11134725" y="9239250"/>
+          <a:ext cx="1666875" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> = "space"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="フローチャート: 判断 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2692E1-7DD1-46C0-8DCE-F51AC59971A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10896600" y="8153401"/>
+          <a:ext cx="2162175" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は空白</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D51A9B-F092-4D25-AD9D-971900AB4972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11968163" y="8877301"/>
+          <a:ext cx="9525" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DA587A-8A88-467F-908B-4D7F757CDB4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9510713" y="9572625"/>
+          <a:ext cx="4762" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="コネクタ: カギ線 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3C5039-BB3E-485C-8075-98138F0D3C07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="138" idx="3"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14468475" y="9058276"/>
+          <a:ext cx="1385888" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92372ED-DB16-4A8E-A7F7-2A685FAF4428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13401675" y="9229725"/>
+          <a:ext cx="1666875" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> = "character"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C44C4F7-E255-4725-8A2C-B9917E250AEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11968163" y="9582150"/>
+          <a:ext cx="4762" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="コネクタ: カギ線 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3166E8B9-4D4D-4DBD-9085-2235F5EB67EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="3"/>
+          <a:endCxn id="70" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13058775" y="8515351"/>
+          <a:ext cx="1176338" cy="714374"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="フローチャート: 判断 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F0136B-B4FF-4D35-AA82-EEDC9EC4DAA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="7258050"/>
+          <a:ext cx="2276475" cy="666749"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>演算子</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29208CF-D626-432D-88FE-B895BCAEF035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629525" y="9782174"/>
+          <a:ext cx="1666875" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> = "*/"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6296DF01-AC65-4F00-8E92-AF0FCCEA112D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="2"/>
+          <a:endCxn id="90" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8453438" y="7924799"/>
+          <a:ext cx="9525" cy="2581275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="コネクタ: カギ線 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56890B59-6849-46B4-ACAB-BBBBFCE0EA0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="89" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="6696076"/>
+          <a:ext cx="1309688" cy="561974"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線コネクタ 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724BBB70-60CA-4E15-BE2A-0B872E139BDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8462963" y="10125074"/>
+          <a:ext cx="4762" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="正方形/長方形 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47A83C5-6255-4EA5-B5B1-A7B8C006FD3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15363825" y="7972425"/>
+          <a:ext cx="1666875" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> = ")"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="フローチャート: 判断 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8C5054F-4F59-4E68-8CD0-7B5CCB1C01A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15125700" y="6886576"/>
+          <a:ext cx="2162175" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直線コネクタ 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D47DA3-2591-4D2C-84FE-EB21E8225D90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="138" idx="2"/>
+          <a:endCxn id="137" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13377863" y="9420226"/>
+          <a:ext cx="9525" cy="1085849"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="コネクタ: カギ線 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6092B2B-0C37-4579-A730-E13FA3BE95CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="138" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12058650" y="8305801"/>
+          <a:ext cx="1328738" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="直線コネクタ 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA544CC-A604-41D8-A813-5FAD7F473F19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16197263" y="8315325"/>
+          <a:ext cx="4762" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6316,15 +11021,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6339,7 +11044,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11753850" y="8143875"/>
+          <a:off x="13982700" y="8362950"/>
           <a:ext cx="2533650" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -6492,13 +11197,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -6515,7 +11220,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6686550" y="7962900"/>
+          <a:off x="6638925" y="7962900"/>
           <a:ext cx="2114550" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6728,15 +11433,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6751,7 +11456,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667500" y="11782425"/>
+          <a:off x="6638925" y="11763375"/>
           <a:ext cx="2114550" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6818,15 +11523,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6843,13 +11548,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7924800" y="9586913"/>
-          <a:ext cx="1038225" cy="1995487"/>
+          <a:off x="7705725" y="9586913"/>
+          <a:ext cx="1257300" cy="1919287"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -78899"/>
-            <a:gd name="adj2" fmla="val 99761"/>
+            <a:gd name="adj1" fmla="val -64394"/>
+            <a:gd name="adj2" fmla="val 100249"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -6876,13 +11581,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -6899,7 +11604,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6696075" y="13944600"/>
+          <a:off x="6638925" y="13944600"/>
           <a:ext cx="2114550" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6947,13 +11652,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -6970,7 +11675,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6696075" y="12858750"/>
+          <a:off x="6648450" y="12858750"/>
           <a:ext cx="2114550" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7012,13 +11717,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -7035,7 +11740,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6677025" y="15020925"/>
+          <a:off x="6629400" y="15020925"/>
           <a:ext cx="2114550" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7248,13 +11953,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -7271,7 +11976,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10848975" y="9963150"/>
+          <a:off x="10820400" y="9963150"/>
           <a:ext cx="2114550" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7429,15 +12134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7452,7 +12157,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10868025" y="13411200"/>
+          <a:off x="10829925" y="13392150"/>
           <a:ext cx="2114550" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7535,13 +12240,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -7558,7 +12263,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10839450" y="11029950"/>
+          <a:off x="10829925" y="11029950"/>
           <a:ext cx="2114550" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7596,15 +12301,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7619,7 +12324,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10820400" y="8867775"/>
+          <a:off x="14182725" y="9944100"/>
           <a:ext cx="2114550" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7661,15 +12366,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7684,7 +12389,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10848975" y="9963150"/>
+          <a:off x="14182725" y="11039475"/>
           <a:ext cx="2114550" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7808,16 +12513,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7832,7 +12537,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14001750" y="8324850"/>
+          <a:off x="16906875" y="9248775"/>
           <a:ext cx="2533650" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -7974,15 +12679,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7997,7 +12702,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14201775" y="11049000"/>
+          <a:off x="17106900" y="11944350"/>
           <a:ext cx="2114550" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8074,15 +12779,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8097,7 +12802,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17135475" y="13030200"/>
+          <a:off x="17106900" y="13020675"/>
           <a:ext cx="2114550" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8254,6 +12959,1543 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="コネクタ: カギ線 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED20EA8F-D96D-4CA7-86F2-DB7FB8C9BBE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619750" y="5586413"/>
+          <a:ext cx="2071687" cy="385762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="コネクタ: カギ線 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2406EFBF-6330-4396-9A5C-C98A68253703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9134474" y="6657975"/>
+          <a:ext cx="2743201" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="コネクタ: カギ線 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1ACE5A1-3EA8-4947-B4FF-19CC9B9AA886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13144500" y="7786688"/>
+          <a:ext cx="2105025" cy="576262"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="コネクタ: カギ線 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A41516-1D2D-4C60-A69F-CDC60F78FD21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16516350" y="8882063"/>
+          <a:ext cx="1657350" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07A3987-5F11-4DFC-91A5-316825F78A50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="4667250"/>
+          <a:ext cx="9525" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65AA595-BE1A-44D7-A591-A158CAFFE832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4333875" y="6105525"/>
+          <a:ext cx="19050" cy="962024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0970B9DF-CC48-484C-83F0-5D24BF50D289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333875" y="7781924"/>
+          <a:ext cx="14288" cy="8696326"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE69CD1-8427-439C-B327-2556F88EF81F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7691437" y="7343775"/>
+          <a:ext cx="4763" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665906CC-D896-4BAC-84B9-1A7CB14CB29D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="8686800"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE9B5EC-1D3E-4955-BC7B-1E92CEF10758}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7686675" y="10106025"/>
+          <a:ext cx="9525" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A597AD16-C68D-4B58-8455-6C3FA965D8B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686675" y="11201400"/>
+          <a:ext cx="9525" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5919A490-FD93-435C-8609-9F7192C14FCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="12487275"/>
+          <a:ext cx="9525" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7847EE-5962-4642-ADD4-D85CF61C3A6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7696200" y="13582650"/>
+          <a:ext cx="9525" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線コネクタ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1431390E-126B-4977-BD02-CAC8896F9F4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7686675" y="14668500"/>
+          <a:ext cx="9525" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929F2675-19AC-4722-BE72-42D34D190BE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686675" y="15744825"/>
+          <a:ext cx="0" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線コネクタ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5589F28-3804-4E17-B06F-8A125F88EFBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11877675" y="8305800"/>
+          <a:ext cx="0" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直線コネクタ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4967A30-B9DD-4982-A3AD-88202981DE6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="2"/>
+          <a:endCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11877675" y="9591675"/>
+          <a:ext cx="0" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD96BBF-5B7B-4465-B4DF-780BCFB84834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11877675" y="10687050"/>
+          <a:ext cx="9525" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1AE720D-24FD-4162-8B8B-0318511CC4C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="2"/>
+          <a:endCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="11753850"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="直線コネクタ 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04209DC-3A8A-466D-98A9-3200ACC7EC8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="12992100"/>
+          <a:ext cx="0" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="直線コネクタ 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96534B8-57DD-4973-8B21-E97097D9C479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="14116050"/>
+          <a:ext cx="0" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直線コネクタ 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9283D3BF-50F4-4C0F-8F24-DF4B40CAC0FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15240000" y="9401175"/>
+          <a:ext cx="9525" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線コネクタ 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B88C4CE-EF11-43A8-9238-E719E51CE498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240000" y="10668000"/>
+          <a:ext cx="0" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直線コネクタ 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE13D5FB-0D6E-4138-95F0-DB93A6FAC095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240000" y="11763375"/>
+          <a:ext cx="0" cy="4352925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直線コネクタ 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBB2D98-96D4-46CC-94C1-ED50B830B025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="46" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18164175" y="10287000"/>
+          <a:ext cx="9525" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="直線コネクタ 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2D2811-8FD6-4A4E-9CDF-FD480EEFEA4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18164175" y="11582400"/>
+          <a:ext cx="0" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直線コネクタ 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47610B73-1442-4329-A6B7-6572DE484C20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="2"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18164175" y="12668250"/>
+          <a:ext cx="0" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直線コネクタ 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{555FC3D4-804E-4DB4-9646-C17C30D0D81F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18164175" y="13744575"/>
+          <a:ext cx="19050" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E8F66D-E7A0-4C0B-A0B9-152CEAF81705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4362450" y="9767888"/>
+          <a:ext cx="15078075" cy="6348412"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5433"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8556,49 +14798,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E67D849-DB9C-4BA8-84E8-0CC0C587D03D}">
-  <dimension ref="B40:Q181"/>
+  <dimension ref="B1:AA193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="N177" sqref="N177"/>
+    <sheetView topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="T57" sqref="T57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="40" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="K40" t="s">
+    <row r="1" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="P44" t="s">
+    <row r="47" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="P47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I45" t="s">
+    <row r="48" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N49" t="s">
+    <row r="52" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N52" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
     </row>
-    <row r="181" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E181" t="s">
+    <row r="101" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M101" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="K105" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S108" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="16:23" x14ac:dyDescent="0.2">
+      <c r="P115" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="16:23" x14ac:dyDescent="0.2">
+      <c r="W116" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="16:23" x14ac:dyDescent="0.2">
+      <c r="U121" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="193" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E193" t="s">
+        <v>32</v>
+      </c>
+      <c r="I193" t="s">
+        <v>33</v>
+      </c>
+      <c r="M193" t="s">
         <v>34</v>
       </c>
-      <c r="I181" t="s">
+      <c r="Q193" t="s">
         <v>35</v>
-      </c>
-      <c r="M181" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q181" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8611,122 +14888,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E624317F-9ED6-4353-B8E3-7B6EEE4E39DF}">
-  <dimension ref="A2:AH49"/>
+  <dimension ref="A1:BC57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="BC1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="36" spans="10:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:36" x14ac:dyDescent="0.2">
       <c r="J36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="38" spans="10:34" x14ac:dyDescent="0.2">
-      <c r="X38" t="s">
-        <v>17</v>
+    <row r="37" spans="10:36" x14ac:dyDescent="0.2">
+      <c r="V37" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="43" spans="10:34" x14ac:dyDescent="0.2">
-      <c r="S43" t="s">
-        <v>16</v>
+    <row r="42" spans="10:36" x14ac:dyDescent="0.2">
+      <c r="R42" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="44" spans="10:34" x14ac:dyDescent="0.2">
-      <c r="AH44" t="s">
-        <v>17</v>
+    <row r="45" spans="10:36" x14ac:dyDescent="0.2">
+      <c r="Y45" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="49" spans="29:29" x14ac:dyDescent="0.2">
-      <c r="AC49" t="s">
-        <v>16</v>
+    <row r="46" spans="10:36" x14ac:dyDescent="0.2">
+      <c r="AJ46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="32:50" x14ac:dyDescent="0.2">
+      <c r="AF50" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="32:50" x14ac:dyDescent="0.2">
+      <c r="AM54" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="32:50" x14ac:dyDescent="0.2">
+      <c r="AT57" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -8739,10 +15040,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D20E27-361E-4C48-BA6A-EEB078B7DAB9}">
-  <dimension ref="B4:AU58"/>
+  <dimension ref="B1:AX58"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="N120" sqref="N120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8750,110 +15051,115 @@
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="AX1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:50" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="11:32" x14ac:dyDescent="0.2">
       <c r="K35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="11:32" x14ac:dyDescent="0.2">
       <c r="W37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="11:32" x14ac:dyDescent="0.2">
       <c r="S42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="11:32" x14ac:dyDescent="0.2">
       <c r="AF43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="11:32" x14ac:dyDescent="0.2">
       <c r="AC47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="19:47" x14ac:dyDescent="0.2">
       <c r="AN49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="19:47" x14ac:dyDescent="0.2">
       <c r="V53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="19:47" x14ac:dyDescent="0.2">
@@ -8863,7 +15169,7 @@
     </row>
     <row r="57" spans="19:47" x14ac:dyDescent="0.2">
       <c r="S57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="19:47" x14ac:dyDescent="0.2">
@@ -8890,12 +15196,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/フローチャート.xlsx
+++ b/フローチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunji\Desktop\GitHub\Calculator-Java-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3309B4B-B11E-4FC2-ABDF-7722E9EC2EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B0EE93-A1AE-4E8D-A0CC-20798243AA7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="150" windowWidth="18930" windowHeight="14895" activeTab="2" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
+    <workbookView xWindow="30" yWindow="45" windowWidth="18930" windowHeight="14895" activeTab="2" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Mainクラス" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>メソッド</t>
     <phoneticPr fontId="1"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>public set(Token token, Node parent, Node left, Node right)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>public get</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -122,10 +118,6 @@
     <rPh sb="13" eb="15">
       <t>フカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>self.value = token</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -259,6 +251,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>this.token = token</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public setNeighbor(Token token, String position)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public setToken(Token token)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -10738,13 +10742,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10811,13 +10815,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10876,13 +10880,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10938,7 +10942,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>演算子かつ親ノードがない</a:t>
+            <a:t>演算子</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10949,13 +10953,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11022,13 +11026,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11092,13 +11096,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11198,13 +11202,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11267,13 +11271,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11340,13 +11344,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11434,13 +11438,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11524,13 +11528,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11582,13 +11586,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11653,13 +11657,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11718,13 +11722,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11836,13 +11840,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11954,13 +11958,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12042,13 +12046,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12135,13 +12139,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12241,13 +12245,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12302,13 +12306,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12367,13 +12371,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12515,13 +12519,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12585,13 +12589,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12680,13 +12684,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12780,13 +12784,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12904,13 +12908,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12965,13 +12969,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13018,13 +13022,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13071,13 +13075,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13124,13 +13128,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13177,13 +13181,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13230,13 +13234,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13283,13 +13287,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13336,13 +13340,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13389,13 +13393,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13442,13 +13446,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13495,13 +13499,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13548,13 +13552,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13601,13 +13605,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13654,13 +13658,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13707,13 +13711,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13759,13 +13763,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13812,13 +13816,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13865,13 +13869,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13918,13 +13922,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13971,13 +13975,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14024,13 +14028,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14076,13 +14080,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14129,13 +14133,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14182,13 +14186,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14234,13 +14238,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14287,13 +14291,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14340,13 +14344,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14393,13 +14397,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14445,13 +14449,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14836,46 +14840,46 @@
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.2">
       <c r="M101" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.2">
       <c r="K105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.2">
       <c r="S108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="16:23" x14ac:dyDescent="0.2">
       <c r="P115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="16:23" x14ac:dyDescent="0.2">
       <c r="W116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="16:23" x14ac:dyDescent="0.2">
       <c r="U121" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="193" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E193" t="s">
+        <v>30</v>
+      </c>
+      <c r="I193" t="s">
+        <v>31</v>
+      </c>
+      <c r="M193" t="s">
         <v>32</v>
       </c>
-      <c r="I193" t="s">
+      <c r="Q193" t="s">
         <v>33</v>
-      </c>
-      <c r="M193" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q193" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -14923,7 +14927,7 @@
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
@@ -14933,75 +14937,75 @@
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="10:36" x14ac:dyDescent="0.2">
       <c r="J36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="10:36" x14ac:dyDescent="0.2">
       <c r="V37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="10:36" x14ac:dyDescent="0.2">
       <c r="R42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="10:36" x14ac:dyDescent="0.2">
       <c r="Y45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="10:36" x14ac:dyDescent="0.2">
@@ -15011,23 +15015,23 @@
     </row>
     <row r="50" spans="32:50" x14ac:dyDescent="0.2">
       <c r="AF50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="32:50" x14ac:dyDescent="0.2">
       <c r="AM54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AX54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="32:50" x14ac:dyDescent="0.2">
       <c r="AT57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -15040,10 +15044,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D20E27-361E-4C48-BA6A-EEB078B7DAB9}">
-  <dimension ref="B1:AX58"/>
+  <dimension ref="B1:AX60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15096,91 +15100,97 @@
     </row>
     <row r="13" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:50" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>20</v>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
-        <v>29</v>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="O31" t="s">
-        <v>15</v>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="35" spans="11:32" x14ac:dyDescent="0.2">
-      <c r="K35" t="s">
+    <row r="33" spans="11:32" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="11:32" x14ac:dyDescent="0.2">
-      <c r="W37" t="s">
-        <v>15</v>
+      <c r="K37" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="42" spans="11:32" x14ac:dyDescent="0.2">
-      <c r="S42" t="s">
+    <row r="39" spans="11:32" x14ac:dyDescent="0.2">
+      <c r="W39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="11:32" x14ac:dyDescent="0.2">
-      <c r="AF43" t="s">
-        <v>15</v>
+    <row r="44" spans="11:32" x14ac:dyDescent="0.2">
+      <c r="S44" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="47" spans="11:32" x14ac:dyDescent="0.2">
-      <c r="AC47" t="s">
+    <row r="45" spans="11:32" x14ac:dyDescent="0.2">
+      <c r="AF45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="19:47" x14ac:dyDescent="0.2">
-      <c r="AN49" t="s">
-        <v>15</v>
+      <c r="AC49" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="53" spans="19:47" x14ac:dyDescent="0.2">
-      <c r="V53" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK53" t="s">
+    <row r="51" spans="19:47" x14ac:dyDescent="0.2">
+      <c r="AN51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="19:47" x14ac:dyDescent="0.2">
-      <c r="AU54" t="s">
+    <row r="55" spans="19:47" x14ac:dyDescent="0.2">
+      <c r="V55" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="19:47" x14ac:dyDescent="0.2">
+      <c r="AU56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="19:47" x14ac:dyDescent="0.2">
-      <c r="S57" t="s">
-        <v>31</v>
+    <row r="59" spans="19:47" x14ac:dyDescent="0.2">
+      <c r="S59" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="58" spans="19:47" x14ac:dyDescent="0.2">
-      <c r="AR58" t="s">
+    <row r="60" spans="19:47" x14ac:dyDescent="0.2">
+      <c r="AR60" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15196,12 +15206,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/フローチャート.xlsx
+++ b/フローチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunji\Desktop\GitHub\Calculator-Java-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B0EE93-A1AE-4E8D-A0CC-20798243AA7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824E6217-0D25-4041-A2BE-23BD9A1AA1CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="45" windowWidth="18930" windowHeight="14895" activeTab="2" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Mainクラス" sheetId="2" r:id="rId1"/>
@@ -1900,16 +1900,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1924,7 +1924,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7534276" y="10715625"/>
+          <a:off x="10315576" y="11315700"/>
           <a:ext cx="2057400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2758,15 +2758,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9529</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>9533</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
+      <xdr:colOff>371477</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2778,13 +2778,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="301" idx="2"/>
+          <a:stCxn id="41" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="7727159" y="8712995"/>
-          <a:ext cx="1371600" cy="5834059"/>
+          <a:off x="8215317" y="9186865"/>
+          <a:ext cx="409575" cy="5848344"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6063,9 +6063,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6078,65 +6078,65 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8558213" y="10934700"/>
+          <a:ext cx="4762" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="直線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFF691D-C453-4FE3-9E77-0A27C107F580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="301" idx="2"/>
           <a:endCxn id="41" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8558213" y="10391775"/>
-          <a:ext cx="4763" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="直線コネクタ 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFF691D-C453-4FE3-9E77-0A27C107F580}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="41" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8562976" y="11306175"/>
-          <a:ext cx="9524" cy="485775"/>
+          <a:off x="11339513" y="10944224"/>
+          <a:ext cx="4763" cy="371476"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8524,13 +8524,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
@@ -8547,7 +8547,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10287000" y="10496550"/>
+          <a:off x="10296525" y="10496550"/>
           <a:ext cx="2085975" cy="447674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8589,7 +8589,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
+      <xdr:colOff>366713</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
@@ -8614,9 +8614,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11329988" y="10125074"/>
-          <a:ext cx="9525" cy="371476"/>
+        <a:xfrm>
+          <a:off x="11339513" y="10125074"/>
+          <a:ext cx="0" cy="371476"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14804,8 +14804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E67D849-DB9C-4BA8-84E8-0CC0C587D03D}">
   <dimension ref="B1:AA193"/>
   <sheetViews>
-    <sheetView topLeftCell="F37" workbookViewId="0">
-      <selection activeCell="T57" sqref="T57"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14822,7 +14822,7 @@
     </row>
     <row r="47" spans="9:16" x14ac:dyDescent="0.2">
       <c r="P47" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="9:16" x14ac:dyDescent="0.2">
@@ -14832,7 +14832,7 @@
     </row>
     <row r="52" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15046,7 +15046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D20E27-361E-4C48-BA6A-EEB078B7DAB9}">
   <dimension ref="B1:AX60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="K61" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>

--- a/フローチャート.xlsx
+++ b/フローチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunji\Desktop\GitHub\Calculator-Java-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824E6217-0D25-4041-A2BE-23BD9A1AA1CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BB340C-D1A9-4659-BDAE-6D78845EC189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Mainクラス" sheetId="2" r:id="rId1"/>
@@ -14804,7 +14804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E67D849-DB9C-4BA8-84E8-0CC0C587D03D}">
   <dimension ref="B1:AA193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+    <sheetView topLeftCell="F36" workbookViewId="0">
       <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
@@ -14894,7 +14894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E624317F-9ED6-4353-B8E3-7B6EEE4E39DF}">
   <dimension ref="A1:BC57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>

--- a/フローチャート.xlsx
+++ b/フローチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunji\Desktop\GitHub\Calculator-Java-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BB340C-D1A9-4659-BDAE-6D78845EC189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F9A480-7BD2-448D-8B1F-10B5810283B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>メソッド</t>
     <phoneticPr fontId="1"/>
@@ -263,6 +263,14 @@
     <t>public setToken(Token token)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -8648,13 +8656,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8718,13 +8726,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8790,13 +8798,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>104777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8863,13 +8871,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8929,13 +8937,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8995,13 +9003,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9064,13 +9072,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9130,13 +9138,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9191,13 +9199,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9244,13 +9252,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9297,13 +9305,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9350,13 +9358,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9403,13 +9411,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9455,13 +9463,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9508,13 +9516,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>104777</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9561,13 +9569,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9614,13 +9622,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9669,13 +9677,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9735,13 +9743,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9801,13 +9809,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9854,13 +9862,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9906,13 +9914,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9959,13 +9967,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10025,13 +10033,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10077,13 +10085,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10130,13 +10138,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10220,13 +10228,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10286,13 +10294,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10339,13 +10347,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10392,13 +10400,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10444,13 +10452,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10510,13 +10518,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10579,13 +10587,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10632,13 +10640,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10685,13 +10693,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10724,6 +10732,882 @@
           <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="フローチャート: 判断 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6C4C16-75E5-4E2F-BC35-83A730CDF199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="4162426"/>
+          <a:ext cx="2533650" cy="904874"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>null</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="フローチャート: 端子 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E442AF8C-8C02-4DE6-8F55-40FD5FD1DDB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="3267076"/>
+          <a:ext cx="1333499" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D34D9A-BA23-40C2-87EA-CC31C4E1A02F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="6338887"/>
+          <a:ext cx="1671638" cy="547687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token = ch</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="フローチャート: 端子 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32DC2D6-08B0-4F7A-947F-7E95E2A7C990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1414463" y="7620001"/>
+          <a:ext cx="1376362" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FBAE2E-797E-48B9-8D93-E78BB3F201B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="3800476"/>
+          <a:ext cx="0" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>350044</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B860908-9472-4430-9F4F-8752FCC67E9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2112169" y="5067300"/>
+          <a:ext cx="2381" cy="1271587"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>340519</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>350044</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F88E147-22C2-4833-B3C6-86D1C8503836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2102644" y="6886574"/>
+          <a:ext cx="9525" cy="733427"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="コネクタ: カギ線 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB028DF-146C-434B-8E55-F958B8BCCCE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="82" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381375" y="4614863"/>
+          <a:ext cx="1190625" cy="414336"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F43586-4675-466C-B97E-1A650952B5E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991225" y="6334125"/>
+          <a:ext cx="1671638" cy="547687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token += ch</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>130970</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1582A61-7ED4-4154-8757-2DC3644E5217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4292202" y="4704160"/>
+          <a:ext cx="357191" cy="4712494"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECA7702-CC49-4BE2-B0E5-28248E444996}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="6334125"/>
+          <a:ext cx="1671638" cy="547687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token = ch</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350044</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A0C239-EBB3-408C-A683-E419E942B4CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4579144" y="6881812"/>
+          <a:ext cx="2381" cy="357188"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="フローチャート: 判断 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5644E982-323A-4D99-841E-F19B258B72EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305175" y="5029199"/>
+          <a:ext cx="2533650" cy="800101"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>でない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350044</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線コネクタ 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273E54E4-072A-42DB-992D-D35684BD9EAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="2"/>
+          <a:endCxn id="77" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="5829300"/>
+          <a:ext cx="7144" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="コネクタ: カギ線 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9D6EC9-5105-416C-B475-F148198B846D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="3"/>
+          <a:endCxn id="67" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="5429250"/>
+          <a:ext cx="988219" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -14892,10 +15776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E624317F-9ED6-4353-B8E3-7B6EEE4E39DF}">
-  <dimension ref="A1:BC57"/>
+  <dimension ref="A1:BC85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14960,77 +15844,95 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
+    <row r="49" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="N32" t="s">
+    <row r="60" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="N60" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="10:36" x14ac:dyDescent="0.2">
-      <c r="J36" t="s">
+    <row r="64" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="J64" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="10:36" x14ac:dyDescent="0.2">
-      <c r="V37" t="s">
+    <row r="65" spans="18:43" x14ac:dyDescent="0.2">
+      <c r="V65" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="10:36" x14ac:dyDescent="0.2">
-      <c r="R42" t="s">
+    <row r="70" spans="18:43" x14ac:dyDescent="0.2">
+      <c r="R70" t="s">
         <v>13</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AC70" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="10:36" x14ac:dyDescent="0.2">
-      <c r="Y45" t="s">
+    <row r="73" spans="18:43" x14ac:dyDescent="0.2">
+      <c r="Y73" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="10:36" x14ac:dyDescent="0.2">
-      <c r="AJ46" t="s">
+    <row r="74" spans="18:43" x14ac:dyDescent="0.2">
+      <c r="AJ74" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="32:50" x14ac:dyDescent="0.2">
-      <c r="AF50" t="s">
+    <row r="78" spans="18:43" x14ac:dyDescent="0.2">
+      <c r="AF78" t="s">
         <v>13</v>
       </c>
-      <c r="AQ50" t="s">
+      <c r="AQ78" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="32:50" x14ac:dyDescent="0.2">
-      <c r="AM54" t="s">
+    <row r="82" spans="39:50" x14ac:dyDescent="0.2">
+      <c r="AM82" t="s">
         <v>34</v>
       </c>
-      <c r="AX54" t="s">
+      <c r="AX82" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="32:50" x14ac:dyDescent="0.2">
-      <c r="AT57" t="s">
+    <row r="85" spans="39:50" x14ac:dyDescent="0.2">
+      <c r="AT85" t="s">
         <v>34</v>
       </c>
     </row>

--- a/フローチャート.xlsx
+++ b/フローチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunji\Desktop\GitHub\Calculator-Java-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F9A480-7BD2-448D-8B1F-10B5810283B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B602D899-B046-4E44-A6AC-0B9924B635D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Mainクラス" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>メソッド</t>
     <phoneticPr fontId="1"/>
@@ -271,6 +271,14 @@
     <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1300,14 +1308,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1324,8 +1332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4114800" y="1609725"/>
-          <a:ext cx="1390650" cy="561975"/>
+          <a:off x="4419600" y="1609725"/>
+          <a:ext cx="2133600" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1352,7 +1360,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>tokenList = []</a:t>
+            <a:t>ArrayList&lt;Token&gt;  tokenList</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1362,14 +1370,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -1386,8 +1394,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4114800" y="2543175"/>
-          <a:ext cx="1390650" cy="561975"/>
+          <a:off x="4514850" y="2543175"/>
+          <a:ext cx="1943100" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1414,7 +1422,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>空の</a:t>
+            <a:t>空白文字の</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
@@ -1551,13 +1559,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>266701</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1574,8 +1582,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4095750" y="4514850"/>
-          <a:ext cx="1390650" cy="561975"/>
+          <a:off x="4381501" y="4514850"/>
+          <a:ext cx="2200274" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1614,7 +1622,43 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>formulaStr[i]</a:t>
+            <a:t>formulaStr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>番目の文字</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1625,15 +1669,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1648,7 +1692,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3543300" y="6543675"/>
+          <a:off x="4219575" y="7258050"/>
           <a:ext cx="2533650" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -1699,13 +1743,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1771,22 +1815,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B250331-0F54-4F80-AAFD-632D34E838B7}"/>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE330E5-E4A7-4F33-ACC2-F19EAAAD9DF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1794,8 +1838,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7505700" y="9048750"/>
-          <a:ext cx="2105026" cy="533399"/>
+          <a:off x="7534276" y="13220700"/>
+          <a:ext cx="2057400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1822,7 +1866,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>token</a:t>
+            <a:t>ch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>category</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1830,11 +1882,11 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>tokenList</a:t>
+            <a:t>token</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に追加する</a:t>
+            <a:t>に設定</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1843,161 +1895,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC292F18-4056-4096-8372-8E44DE4B7B5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7515225" y="9944101"/>
-          <a:ext cx="2085975" cy="447674"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>token</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>をクリア</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE330E5-E4A7-4F33-ACC2-F19EAAAD9DF0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10315576" y="11315700"/>
-          <a:ext cx="2057400" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>と</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>category</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>token</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に設定</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2052,13 +1958,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2701,15 +2607,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2724,7 +2630,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6600825" y="7439025"/>
+          <a:off x="7296150" y="11772900"/>
           <a:ext cx="2533650" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -2756,7 +2662,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は空白</a:t>
+            <a:t>は空白でない</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2766,15 +2672,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9533</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371477</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2786,16 +2692,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="41" idx="2"/>
+          <a:stCxn id="58" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8215317" y="9186865"/>
-          <a:ext cx="409575" cy="5848344"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:xfrm flipH="1">
+          <a:off x="5486400" y="12292013"/>
+          <a:ext cx="4343400" cy="2005012"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -26316"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -2822,13 +2730,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2950,13 +2858,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3019,13 +2927,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3080,13 +2988,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3155,13 +3063,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3221,13 +3129,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3290,13 +3198,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3351,13 +3259,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3413,13 +3321,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3496,13 +3404,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3564,13 +3472,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3629,13 +3537,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3690,13 +3598,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3760,13 +3668,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3848,13 +3756,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3954,13 +3862,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4023,13 +3931,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4084,13 +3992,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4202,13 +4110,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4263,13 +4171,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4329,13 +4237,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4399,13 +4307,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4487,13 +4395,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4549,13 +4457,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4631,13 +4539,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4684,13 +4592,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4736,13 +4644,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4824,13 +4732,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4906,13 +4814,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4958,13 +4866,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5046,13 +4954,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5098,13 +5006,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5186,13 +5094,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5314,13 +5222,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5374,7 +5282,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
@@ -5399,9 +5307,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5495925" y="1171575"/>
-          <a:ext cx="0" cy="438150"/>
+        <a:xfrm flipH="1">
+          <a:off x="5486400" y="1171575"/>
+          <a:ext cx="9525" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5427,13 +5335,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -5453,7 +5361,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5495925" y="2171700"/>
+          <a:off x="5486400" y="2171700"/>
           <a:ext cx="0" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5486,7 +5394,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -5505,9 +5413,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
+        <a:xfrm>
           <a:off x="5486400" y="3105150"/>
-          <a:ext cx="9525" cy="361950"/>
+          <a:ext cx="0" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5533,7 +5441,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>681038</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
@@ -5559,8 +5467,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5476875" y="4152900"/>
-          <a:ext cx="9525" cy="361950"/>
+          <a:off x="5481638" y="4152900"/>
+          <a:ext cx="4762" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5586,7 +5494,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>681038</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
@@ -5613,8 +5521,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5476875" y="5076825"/>
-          <a:ext cx="9525" cy="361949"/>
+          <a:off x="5481638" y="5076825"/>
+          <a:ext cx="4762" cy="361949"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5696,12 +5604,12 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5719,9 +5627,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5486400" y="7762875"/>
-          <a:ext cx="9525" cy="561976"/>
+        <a:xfrm>
+          <a:off x="5486400" y="8296275"/>
+          <a:ext cx="0" cy="3286126"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5748,13 +5656,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5773,8 +5681,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5476875" y="8877301"/>
-          <a:ext cx="9525" cy="3257549"/>
+          <a:off x="5476875" y="12134851"/>
+          <a:ext cx="9525" cy="2533649"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5801,13 +5709,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5854,13 +5762,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5906,15 +5814,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5927,13 +5835,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="3"/>
-          <a:endCxn id="58" idx="0"/>
+          <a:endCxn id="139" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6762750" y="7243763"/>
-          <a:ext cx="1790700" cy="195262"/>
+          <a:off x="6753225" y="7777163"/>
+          <a:ext cx="1795463" cy="376237"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5959,68 +5867,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="直線コネクタ 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1E6B85-1947-4AD8-89E6-709316C33766}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="2"/>
-          <a:endCxn id="38" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8553450" y="8477250"/>
-          <a:ext cx="4763" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6032,14 +5887,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="38" idx="2"/>
-          <a:endCxn id="39" idx="0"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="58" idx="2"/>
+          <a:endCxn id="41" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8558213" y="9582149"/>
-          <a:ext cx="0" cy="361952"/>
+          <a:off x="8562975" y="12811125"/>
+          <a:ext cx="1" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6064,16 +5920,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6085,66 +5941,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="39" idx="2"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="41" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8558213" y="10934700"/>
-          <a:ext cx="4762" cy="1390650"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>366713</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="直線コネクタ 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFF691D-C453-4FE3-9E77-0A27C107F580}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="301" idx="2"/>
-          <a:endCxn id="41" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11339513" y="10944224"/>
-          <a:ext cx="4763" cy="371476"/>
+        <a:xfrm flipH="1">
+          <a:off x="8562975" y="13811250"/>
+          <a:ext cx="1" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6595,13 +6399,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6648,13 +6452,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6701,13 +6505,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6754,13 +6558,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6807,13 +6611,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6860,13 +6664,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6913,13 +6717,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6966,13 +6770,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7019,13 +6823,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7072,13 +6876,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7125,13 +6929,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7178,13 +6982,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>671513</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7231,13 +7035,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7286,13 +7090,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7338,13 +7142,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7390,13 +7194,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7443,13 +7247,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7496,13 +7300,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7549,13 +7353,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7602,13 +7406,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7654,13 +7458,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7707,13 +7511,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7760,13 +7564,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7813,13 +7617,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7866,13 +7670,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7918,13 +7722,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7971,13 +7775,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8024,13 +7828,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8077,13 +7881,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8138,13 +7942,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8293,9 +8097,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8315,7 +8119,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5486400" y="6896100"/>
-          <a:ext cx="9525" cy="371475"/>
+          <a:ext cx="0" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8405,23 +8209,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="295" name="正方形/長方形 294">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34489938-BED3-496F-9BB1-5FF63A007B02}"/>
+        <xdr:cNvPr id="139" name="フローチャート: 判断 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D2E6A4-99C2-4661-A94F-50B495326E25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8429,10 +8233,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10287000" y="9591675"/>
-          <a:ext cx="2105026" cy="533399"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+          <a:off x="7391400" y="8153400"/>
+          <a:ext cx="2314576" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -8461,15 +8265,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>tokenList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に追加する</a:t>
+            <a:t>は空白でない</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8478,76 +8274,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>366713</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="297" name="コネクタ: カギ線 296">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8CFBEB-68C1-44EC-BC24-88FAFEAF387E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="3"/>
-          <a:endCxn id="295" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9820275" y="8501063"/>
-          <a:ext cx="1519238" cy="1090612"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="301" name="正方形/長方形 300">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D2C366-4A8F-4423-B33C-3DCF738E38CA}"/>
+        <xdr:cNvPr id="141" name="正方形/長方形 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5394863-F60D-4F0C-8588-D45AE41D139B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8555,8 +8298,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10296525" y="10496550"/>
-          <a:ext cx="2085975" cy="447674"/>
+          <a:off x="7505700" y="9777412"/>
+          <a:ext cx="2105026" cy="533399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8587,7 +8330,15 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>をクリア</a:t>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>tokenList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に追加する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8596,35 +8347,264 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>366713</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>366713</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="302" name="直線コネクタ 301">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF83C88-86A6-4E62-BF25-D64EC4939DC0}"/>
+        <xdr:cNvPr id="147" name="直線コネクタ 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CBC8D20-C8E2-4A03-A4EF-CFE72F8606FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="295" idx="2"/>
-          <a:endCxn id="301" idx="0"/>
+          <a:stCxn id="139" idx="2"/>
+          <a:endCxn id="141" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11339513" y="10125074"/>
-          <a:ext cx="0" cy="371476"/>
+          <a:off x="8548688" y="9391650"/>
+          <a:ext cx="9525" cy="385762"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95254</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60974326-CD7B-4C76-858C-D758F62F9487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="139" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8553451" y="8772525"/>
+          <a:ext cx="1152525" cy="1819279"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -140496"/>
+            <a:gd name="adj2" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="187" name="直線コネクタ 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016EED84-9847-450D-9A28-14040BE33C34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="141" idx="2"/>
+          <a:endCxn id="196" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8558213" y="10310811"/>
+          <a:ext cx="0" cy="547689"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="正方形/長方形 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D7A8C1-04E4-433D-99C0-47586FF7547F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="10858500"/>
+          <a:ext cx="2105026" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を空白文字にする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="198" name="直線コネクタ 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B553FE55-BC9F-4CAE-9CFB-D360EA0E1025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="196" idx="2"/>
+          <a:endCxn id="58" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8558213" y="11391899"/>
+          <a:ext cx="4762" cy="381001"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -15686,83 +15666,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E67D849-DB9C-4BA8-84E8-0CC0C587D03D}">
-  <dimension ref="B1:AA193"/>
+  <dimension ref="B1:AA204"/>
   <sheetViews>
-    <sheetView topLeftCell="F36" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:15" x14ac:dyDescent="0.2">
       <c r="K43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="P47" t="s">
+    <row r="48" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="P68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I48" t="s">
+    <row r="72" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N72" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N52" t="s">
-        <v>2</v>
-      </c>
+    <row r="100" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="2:13" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B111" s="2"/>
     </row>
-    <row r="100" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="M101" t="s">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M112" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="K105" t="s">
+    <row r="116" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K116" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="S108" t="s">
+    <row r="119" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="S119" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="16:23" x14ac:dyDescent="0.2">
-      <c r="P115" t="s">
+    <row r="126" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="P126" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="16:23" x14ac:dyDescent="0.2">
-      <c r="W116" t="s">
+    <row r="127" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="W127" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="16:23" x14ac:dyDescent="0.2">
-      <c r="U121" t="s">
+    <row r="132" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U132" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E193" t="s">
+    <row r="204" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E204" t="s">
         <v>30</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I204" t="s">
         <v>31</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M204" t="s">
         <v>32</v>
       </c>
-      <c r="Q193" t="s">
+      <c r="Q204" t="s">
         <v>33</v>
       </c>
     </row>
@@ -15778,8 +15770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E624317F-9ED6-4353-B8E3-7B6EEE4E39DF}">
   <dimension ref="A1:BC85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/フローチャート.xlsx
+++ b/フローチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunji\Desktop\GitHub\Calculator-Java-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B602D899-B046-4E44-A6AC-0B9924B635D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E517F419-17E4-4A25-9A31-5C2F0585120B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Mainクラス" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>メソッド</t>
     <phoneticPr fontId="1"/>
@@ -182,28 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>thisノードに対してtokenを値に持つノードを適切な位置に付加する</t>
-    <rPh sb="8" eb="9">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テキセツ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -277,6 +255,31 @@
   </si>
   <si>
     <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したノードに対してtokenを値に持つノードを適切な位置に付加する</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>フカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10856,14 +10859,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>128588</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10878,7 +10881,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1276350" y="6338887"/>
+          <a:off x="1276350" y="5967412"/>
           <a:ext cx="1671638" cy="547687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11038,8 +11041,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11058,7 +11061,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="2112169" y="5067300"/>
-          <a:ext cx="2381" cy="1271587"/>
+          <a:ext cx="2381" cy="900112"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11085,8 +11088,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>340519</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -11110,8 +11113,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2102644" y="6886574"/>
-          <a:ext cx="9525" cy="733427"/>
+          <a:off x="2102644" y="6515099"/>
+          <a:ext cx="9525" cy="1104902"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11143,9 +11146,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>350044</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11157,14 +11160,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="38" idx="3"/>
-          <a:endCxn id="82" idx="0"/>
+          <a:endCxn id="77" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3381375" y="4614863"/>
-          <a:ext cx="1190625" cy="414336"/>
+          <a:ext cx="1197769" cy="1366837"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -11189,23 +11193,78 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350045</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1582A61-7ED4-4154-8757-2DC3644E5217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3073002" y="5551885"/>
+          <a:ext cx="528641" cy="2483644"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F43586-4675-466C-B97E-1A650952B5E7}"/>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECA7702-CC49-4BE2-B0E5-28248E444996}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11213,7 +11272,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5991225" y="6334125"/>
+          <a:off x="3743325" y="5981700"/>
           <a:ext cx="1671638" cy="547687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11247,354 +11306,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>130970</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線矢印コネクタ 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1582A61-7ED4-4154-8757-2DC3644E5217}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="67" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4292202" y="4704160"/>
-          <a:ext cx="357191" cy="4712494"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>128588</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="正方形/長方形 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECA7702-CC49-4BE2-B0E5-28248E444996}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3743325" y="6334125"/>
-          <a:ext cx="1671638" cy="547687"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>token = ch</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>350044</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線コネクタ 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A0C239-EBB3-408C-A683-E419E942B4CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="77" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4579144" y="6881812"/>
-          <a:ext cx="2381" cy="357188"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="フローチャート: 判断 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5644E982-323A-4D99-841E-F19B258B72EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3305175" y="5029199"/>
-          <a:ext cx="2533650" cy="800101"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>が</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>null</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>でない</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>350044</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="直線コネクタ 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273E54E4-072A-42DB-992D-D35684BD9EAE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="82" idx="2"/>
-          <a:endCxn id="77" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4572000" y="5829300"/>
-          <a:ext cx="7144" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>130969</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="コネクタ: カギ線 97">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9D6EC9-5105-416C-B475-F148198B846D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="82" idx="3"/>
-          <a:endCxn id="67" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5838825" y="5429250"/>
-          <a:ext cx="988219" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15668,7 +15379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E67D849-DB9C-4BA8-84E8-0CC0C587D03D}">
   <dimension ref="B1:AA204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
@@ -15692,12 +15403,12 @@
         <v>2</v>
       </c>
       <c r="O48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="14:16" x14ac:dyDescent="0.2">
@@ -15716,46 +15427,46 @@
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.2">
       <c r="M112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="11:23" x14ac:dyDescent="0.2">
       <c r="K116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="11:23" x14ac:dyDescent="0.2">
       <c r="S119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="11:23" x14ac:dyDescent="0.2">
       <c r="P126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="11:23" x14ac:dyDescent="0.2">
       <c r="W127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="204" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E204" t="s">
+        <v>29</v>
+      </c>
+      <c r="I204" t="s">
         <v>30</v>
       </c>
-      <c r="I204" t="s">
+      <c r="M204" t="s">
         <v>31</v>
       </c>
-      <c r="M204" t="s">
+      <c r="Q204" t="s">
         <v>32</v>
-      </c>
-      <c r="Q204" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -15770,8 +15481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E624317F-9ED6-4353-B8E3-7B6EEE4E39DF}">
   <dimension ref="A1:BC85"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15803,7 +15514,7 @@
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
@@ -15836,35 +15547,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
-      <c r="R30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="N34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>26</v>
       </c>
@@ -15886,7 +15589,7 @@
     </row>
     <row r="65" spans="18:43" x14ac:dyDescent="0.2">
       <c r="V65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="18:43" x14ac:dyDescent="0.2">
@@ -15894,12 +15597,12 @@
         <v>13</v>
       </c>
       <c r="AC70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="18:43" x14ac:dyDescent="0.2">
       <c r="Y73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="18:43" x14ac:dyDescent="0.2">
@@ -15917,15 +15620,15 @@
     </row>
     <row r="82" spans="39:50" x14ac:dyDescent="0.2">
       <c r="AM82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AX82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="39:50" x14ac:dyDescent="0.2">
       <c r="AT85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -15940,8 +15643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D20E27-361E-4C48-BA6A-EEB078B7DAB9}">
   <dimension ref="B1:AX60"/>
   <sheetViews>
-    <sheetView topLeftCell="K61" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15999,17 +15702,17 @@
     </row>
     <row r="14" spans="2:50" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.2">
@@ -16019,7 +15722,7 @@
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="11:32" x14ac:dyDescent="0.2">
@@ -16059,7 +15762,7 @@
     </row>
     <row r="55" spans="19:47" x14ac:dyDescent="0.2">
       <c r="V55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK55" t="s">
         <v>13</v>
@@ -16072,7 +15775,7 @@
     </row>
     <row r="59" spans="19:47" x14ac:dyDescent="0.2">
       <c r="S59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="19:47" x14ac:dyDescent="0.2">

--- a/フローチャート.xlsx
+++ b/フローチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunji\Desktop\GitHub\Calculator-Java-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9832C7-9D34-49CD-AFE6-6D4AA64800F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C528FB1-1AA8-4BF1-82DE-6A02DC401F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7009282E-555A-41FA-8AB4-EF4A36CA1C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Mainクラス" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>メソッド</t>
     <phoneticPr fontId="1"/>
@@ -317,16 +317,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(Tokenのメンバ変数)</t>
-  </si>
-  <si>
-    <t>(Tokenのメンバ変数)</t>
-    <rPh sb="10" eb="12">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>private Node parent</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -354,12 +344,19 @@
     <t>super(token.token, token.category)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>connect(newNode, nodeList, currentNode)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +384,12 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,7 +476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,6 +510,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -10622,8 +10628,8 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10638,8 +10644,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14801850" y="10706100"/>
-          <a:ext cx="2533650" cy="1038225"/>
+          <a:off x="9744075" y="5648325"/>
+          <a:ext cx="2533650" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -10666,11 +10672,19 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>node</a:t>
+            <a:t>newNode</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は演算子</a:t>
+            <a:t>は</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>演算子</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10731,7 +10745,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>node</a:t>
+            <a:t>newNode</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -11283,7 +11297,7 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
@@ -11307,8 +11321,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13144500" y="7786688"/>
-          <a:ext cx="2105025" cy="576262"/>
+          <a:off x="12277725" y="6238875"/>
+          <a:ext cx="2105025" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -11495,8 +11509,8 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
@@ -11520,8 +11534,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11877675" y="9753600"/>
-          <a:ext cx="0" cy="1466850"/>
+          <a:off x="11010900" y="6829425"/>
+          <a:ext cx="0" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13279,6 +13293,22 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>connect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>           </a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>開始</a:t>
           </a:r>
@@ -13853,7 +13883,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11010900" y="5238750"/>
+          <a:off x="11010900" y="5248275"/>
           <a:ext cx="9525" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14179,7 +14209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E67D849-DB9C-4BA8-84E8-0CC0C587D03D}">
   <dimension ref="C1:AC172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M169" sqref="M169"/>
     </sheetView>
   </sheetViews>
@@ -14227,17 +14257,17 @@
     </row>
     <row r="119" spans="6:8" x14ac:dyDescent="0.2">
       <c r="H119" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F123" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="6:8" x14ac:dyDescent="0.2">
       <c r="H128" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="6:28" x14ac:dyDescent="0.2">
@@ -14256,17 +14286,17 @@
     </row>
     <row r="133" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F133" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="6:8" x14ac:dyDescent="0.2">
       <c r="H167" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F172" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -14443,8 +14473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D20E27-361E-4C48-BA6A-EEB078B7DAB9}">
   <dimension ref="B1:AX111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W66" sqref="W66"/>
+    <sheetView tabSelected="1" topLeftCell="K36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14470,23 +14500,7 @@
     </row>
     <row r="6" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:50" x14ac:dyDescent="0.2">
@@ -14501,27 +14515,30 @@
     </row>
     <row r="13" spans="2:50" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:25" ht="15" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
         <v>31</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="15:38" x14ac:dyDescent="0.2">
@@ -14530,6 +14547,9 @@
       </c>
     </row>
     <row r="40" spans="15:38" x14ac:dyDescent="0.2">
+      <c r="AA40" t="s">
+        <v>53</v>
+      </c>
       <c r="AL40" t="s">
         <v>8</v>
       </c>
